--- a/Z74.SI.xlsx
+++ b/Z74.SI.xlsx
@@ -1,6 +1,6 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="18730"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
@@ -9,18 +9,19 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="24120" windowHeight="9945" activeTab="1"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="24120" windowHeight="9945" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Z74.SI_EOD" sheetId="1" r:id="rId1"/>
-    <sheet name="Sheet1" sheetId="2" r:id="rId2"/>
+    <sheet name="Z74.SI_EOM" sheetId="3" r:id="rId2"/>
+    <sheet name="Z74.SI_DIV" sheetId="2" r:id="rId3"/>
   </sheets>
-  <calcPr calcId="0"/>
+  <calcPr calcId="171027"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="81" uniqueCount="9">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="92" uniqueCount="13">
   <si>
     <t>Date</t>
   </si>
@@ -48,11 +49,23 @@
   <si>
     <t>Dividends</t>
   </si>
+  <si>
+    <t>Year</t>
+  </si>
+  <si>
+    <t>Div</t>
+  </si>
+  <si>
+    <t>P</t>
+  </si>
+  <si>
+    <t>Y%</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <fonts count="18" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -486,7 +499,7 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="42">
+  <cellStyleXfs count="43">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0"/>
@@ -529,14 +542,16 @@
     <xf numFmtId="0" fontId="1" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="1" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="1" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="4">
+  <cellXfs count="5">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="10" fontId="0" fillId="0" borderId="0" xfId="42" applyNumberFormat="1" applyFont="1"/>
   </cellXfs>
-  <cellStyles count="42">
+  <cellStyles count="43">
     <cellStyle name="20% - Accent1" xfId="19" builtinId="30" customBuiltin="1"/>
     <cellStyle name="20% - Accent2" xfId="23" builtinId="34" customBuiltin="1"/>
     <cellStyle name="20% - Accent3" xfId="27" builtinId="38" customBuiltin="1"/>
@@ -576,6 +591,7 @@
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
     <cellStyle name="Note" xfId="15" builtinId="10" customBuiltin="1"/>
     <cellStyle name="Output" xfId="10" builtinId="21" customBuiltin="1"/>
+    <cellStyle name="Percent" xfId="42" builtinId="5"/>
     <cellStyle name="Title" xfId="1" builtinId="15" customBuiltin="1"/>
     <cellStyle name="Total" xfId="17" builtinId="25" customBuiltin="1"/>
     <cellStyle name="Warning Text" xfId="14" builtinId="11" customBuiltin="1"/>
@@ -591,6 +607,1173 @@
     </ext>
   </extLst>
 </styleSheet>
+</file>
+
+<file path=xl/charts/chart1.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
+  <c:lang val="en-US"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="en-US"/>
+        </a:p>
+      </c:txPr>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:barChart>
+        <c:barDir val="col"/>
+        <c:grouping val="clustered"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>'Z74.SI_DIV'!$G$1</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Div</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:solidFill>
+              <a:schemeClr val="accent1"/>
+            </a:solidFill>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:invertIfNegative val="0"/>
+          <c:cat>
+            <c:strRef>
+              <c:extLst>
+                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
+                  <c15:fullRef>
+                    <c15:sqref>'Z74.SI_DIV'!$F$1:$F$13</c15:sqref>
+                  </c15:fullRef>
+                </c:ext>
+              </c:extLst>
+              <c:f>'Z74.SI_DIV'!$F$2:$F$13</c:f>
+              <c:strCache>
+                <c:ptCount val="12"/>
+                <c:pt idx="0">
+                  <c:v>2006</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>2007</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>2008</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>2009</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>2010</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>2011</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>2012</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>2013</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>2014</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>2015</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>2016</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>2017</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:extLst>
+                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
+                  <c15:fullRef>
+                    <c15:sqref>'Z74.SI_DIV'!$G$2:$G$13</c15:sqref>
+                  </c15:fullRef>
+                </c:ext>
+              </c:extLst>
+              <c:f>'Z74.SI_DIV'!$G$3:$G$13</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="11"/>
+                <c:pt idx="0">
+                  <c:v>5.6000000000000001E-2</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0.125</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0.13100000000000001</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>0.14800000000000002</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>0.158</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>0.158</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>6.8000000000000005E-2</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>0.16800000000000001</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>0.17499999999999999</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>0.17499999999999999</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>0.17499999999999999</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000000-34C1-47DB-85EC-E96A82EB900C}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:gapWidth val="219"/>
+        <c:overlap val="-27"/>
+        <c:axId val="589890488"/>
+        <c:axId val="589891144"/>
+      </c:barChart>
+      <c:lineChart>
+        <c:grouping val="standard"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="1"/>
+          <c:order val="1"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>'Z74.SI_DIV'!$I$1</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Y%</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="28575" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent2"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:cat>
+            <c:strLit>
+              <c:ptCount val="11"/>
+              <c:pt idx="0">
+                <c:v>200.00%</c:v>
+              </c:pt>
+              <c:pt idx="1">
+                <c:v>300.00%</c:v>
+              </c:pt>
+              <c:pt idx="2">
+                <c:v>400.00%</c:v>
+              </c:pt>
+              <c:pt idx="3">
+                <c:v>500.00%</c:v>
+              </c:pt>
+              <c:pt idx="4">
+                <c:v>600.00%</c:v>
+              </c:pt>
+              <c:pt idx="5">
+                <c:v>700.00%</c:v>
+              </c:pt>
+              <c:pt idx="6">
+                <c:v>800.00%</c:v>
+              </c:pt>
+              <c:pt idx="7">
+                <c:v>900.00%</c:v>
+              </c:pt>
+              <c:pt idx="8">
+                <c:v>1000.00%</c:v>
+              </c:pt>
+              <c:pt idx="9">
+                <c:v>1100.00%</c:v>
+              </c:pt>
+              <c:pt idx="10">
+                <c:v>1200.00%</c:v>
+              </c:pt>
+              <c:extLst>
+                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
+                  <c15:autoCat val="1"/>
+                </c:ext>
+              </c:extLst>
+            </c:strLit>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:extLst>
+                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
+                  <c15:fullRef>
+                    <c15:sqref>'Z74.SI_DIV'!$I$2:$I$13</c15:sqref>
+                  </c15:fullRef>
+                </c:ext>
+              </c:extLst>
+              <c:f>'Z74.SI_DIV'!$I$3:$I$13</c:f>
+              <c:numCache>
+                <c:formatCode>0.00%</c:formatCode>
+                <c:ptCount val="11"/>
+                <c:pt idx="0">
+                  <c:v>1.5342465753424659E-2</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>4.6992481203007516E-2</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>4.3521594684385385E-2</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>4.774193548387097E-2</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>5.0967741935483868E-2</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>4.5142857142857144E-2</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>1.9263456090651561E-2</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>4.1176470588235294E-2</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>4.9857549857549859E-2</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>4.5219638242894052E-2</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>4.8611111111111105E-2</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000001-34C1-47DB-85EC-E96A82EB900C}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:marker val="1"/>
+        <c:smooth val="0"/>
+        <c:axId val="589900656"/>
+        <c:axId val="589900328"/>
+      </c:lineChart>
+      <c:catAx>
+        <c:axId val="589890488"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="15000"/>
+                <a:lumOff val="85000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="589891144"/>
+        <c:crosses val="autoZero"/>
+        <c:auto val="1"/>
+        <c:lblAlgn val="ctr"/>
+        <c:lblOffset val="100"/>
+        <c:noMultiLvlLbl val="0"/>
+      </c:catAx>
+      <c:valAx>
+        <c:axId val="589891144"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln>
+            <a:noFill/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="589890488"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="between"/>
+      </c:valAx>
+      <c:valAx>
+        <c:axId val="589900328"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="r"/>
+        <c:numFmt formatCode="0.00%" sourceLinked="1"/>
+        <c:majorTickMark val="out"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln>
+            <a:noFill/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="589900656"/>
+        <c:crosses val="max"/>
+        <c:crossBetween val="between"/>
+      </c:valAx>
+      <c:catAx>
+        <c:axId val="589900656"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="1"/>
+        <c:axPos val="b"/>
+        <c:majorTickMark val="out"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:crossAx val="589900328"/>
+        <c:auto val="1"/>
+        <c:lblAlgn val="ctr"/>
+        <c:lblOffset val="100"/>
+        <c:noMultiLvlLbl val="0"/>
+      </c:catAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:legend>
+      <c:legendPos val="b"/>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="en-US"/>
+        </a:p>
+      </c:txPr>
+    </c:legend>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:extLst>
+      <c:ext xmlns:c16r3="http://schemas.microsoft.com/office/drawing/2017/03/chart" uri="{56B9EC1D-385E-4148-901F-78D8002777C0}">
+        <c16r3:dataDisplayOptions16>
+          <c16r3:dispNaAsBlank val="1"/>
+        </c16r3:dataDisplayOptions16>
+      </c:ext>
+    </c:extLst>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="en-US"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/colors1.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
+<file path=xl/charts/style1.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="201">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="28575" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="65000"/>
+          <a:lumOff val="35000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="75000"/>
+            <a:lumOff val="25000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="sysDot"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
+<file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>10</xdr:col>
+      <xdr:colOff>42862</xdr:colOff>
+      <xdr:row>1</xdr:row>
+      <xdr:rowOff>33337</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>17</xdr:col>
+      <xdr:colOff>347662</xdr:colOff>
+      <xdr:row>15</xdr:row>
+      <xdr:rowOff>109537</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="5" name="Chart 4">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{66905FDE-3D07-4B50-9731-719148F18322}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvGraphicFramePr/>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -889,11 +2072,11 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:G3441"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+  <dimension ref="A1:G3452"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="N8" sqref="N8"/>
+    <sheetView topLeftCell="A731" workbookViewId="0">
+      <selection activeCell="O3446" sqref="O3446"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -80049,137 +81232,4439 @@
         <v>27461039</v>
       </c>
     </row>
+    <row r="3442" spans="1:7" s="2" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A3442" s="3">
+        <v>43292</v>
+      </c>
+      <c r="B3442" s="2">
+        <v>3.25</v>
+      </c>
+      <c r="C3442" s="2">
+        <v>3.28</v>
+      </c>
+      <c r="D3442" s="2">
+        <v>3.23</v>
+      </c>
+      <c r="E3442" s="2">
+        <v>3.27</v>
+      </c>
+      <c r="F3442" s="2">
+        <v>3.1646109999999998</v>
+      </c>
+      <c r="G3442" s="2">
+        <v>19959000</v>
+      </c>
+    </row>
+    <row r="3443" spans="1:7" s="2" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A3443" s="3">
+        <v>43293</v>
+      </c>
+      <c r="B3443" s="2">
+        <v>3.27</v>
+      </c>
+      <c r="C3443" s="2">
+        <v>3.29</v>
+      </c>
+      <c r="D3443" s="2">
+        <v>3.25</v>
+      </c>
+      <c r="E3443" s="2">
+        <v>3.26</v>
+      </c>
+      <c r="F3443" s="2">
+        <v>3.1549339999999999</v>
+      </c>
+      <c r="G3443" s="2">
+        <v>16745900</v>
+      </c>
+    </row>
+    <row r="3444" spans="1:7" s="2" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A3444" s="3">
+        <v>43294</v>
+      </c>
+      <c r="B3444" s="2">
+        <v>3.26</v>
+      </c>
+      <c r="C3444" s="2">
+        <v>3.28</v>
+      </c>
+      <c r="D3444" s="2">
+        <v>3.24</v>
+      </c>
+      <c r="E3444" s="2">
+        <v>3.24</v>
+      </c>
+      <c r="F3444" s="2">
+        <v>3.1355780000000002</v>
+      </c>
+      <c r="G3444" s="2">
+        <v>15927501</v>
+      </c>
+    </row>
+    <row r="3445" spans="1:7" s="2" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A3445" s="3">
+        <v>43297</v>
+      </c>
+      <c r="B3445" s="2">
+        <v>3.24</v>
+      </c>
+      <c r="C3445" s="2">
+        <v>3.27</v>
+      </c>
+      <c r="D3445" s="2">
+        <v>3.21</v>
+      </c>
+      <c r="E3445" s="2">
+        <v>3.26</v>
+      </c>
+      <c r="F3445" s="2">
+        <v>3.1549339999999999</v>
+      </c>
+      <c r="G3445" s="2">
+        <v>13838500</v>
+      </c>
+    </row>
+    <row r="3446" spans="1:7" s="2" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A3446" s="3">
+        <v>43298</v>
+      </c>
+      <c r="B3446" s="2">
+        <v>3.26</v>
+      </c>
+      <c r="C3446" s="2">
+        <v>3.29</v>
+      </c>
+      <c r="D3446" s="2">
+        <v>3.24</v>
+      </c>
+      <c r="E3446" s="2">
+        <v>3.27</v>
+      </c>
+      <c r="F3446" s="2">
+        <v>3.1646109999999998</v>
+      </c>
+      <c r="G3446" s="2">
+        <v>14616200</v>
+      </c>
+    </row>
+    <row r="3447" spans="1:7" s="2" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A3447" s="3">
+        <v>43299</v>
+      </c>
+      <c r="B3447" s="2">
+        <v>3.26</v>
+      </c>
+      <c r="C3447" s="2">
+        <v>3.28</v>
+      </c>
+      <c r="D3447" s="2">
+        <v>3.24</v>
+      </c>
+      <c r="E3447" s="2">
+        <v>3.24</v>
+      </c>
+      <c r="F3447" s="2">
+        <v>3.1355780000000002</v>
+      </c>
+      <c r="G3447" s="2">
+        <v>13252600</v>
+      </c>
+    </row>
+    <row r="3448" spans="1:7" s="2" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A3448" s="3">
+        <v>43300</v>
+      </c>
+      <c r="B3448" s="2">
+        <v>3.24</v>
+      </c>
+      <c r="C3448" s="2">
+        <v>3.27</v>
+      </c>
+      <c r="D3448" s="2">
+        <v>3.24</v>
+      </c>
+      <c r="E3448" s="2">
+        <v>3.26</v>
+      </c>
+      <c r="F3448" s="2">
+        <v>3.1549339999999999</v>
+      </c>
+      <c r="G3448" s="2">
+        <v>10990600</v>
+      </c>
+    </row>
+    <row r="3449" spans="1:7" s="2" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A3449" s="3">
+        <v>43301</v>
+      </c>
+      <c r="B3449" s="2">
+        <v>3.27</v>
+      </c>
+      <c r="C3449" s="2">
+        <v>3.32</v>
+      </c>
+      <c r="D3449" s="2">
+        <v>3.26</v>
+      </c>
+      <c r="E3449" s="2">
+        <v>3.31</v>
+      </c>
+      <c r="F3449" s="2">
+        <v>3.203322</v>
+      </c>
+      <c r="G3449" s="2">
+        <v>18858300</v>
+      </c>
+    </row>
+    <row r="3450" spans="1:7" s="2" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A3450" s="3">
+        <v>43304</v>
+      </c>
+      <c r="B3450" s="2">
+        <v>3.32</v>
+      </c>
+      <c r="C3450" s="2">
+        <v>3.35</v>
+      </c>
+      <c r="D3450" s="2">
+        <v>3.3</v>
+      </c>
+      <c r="E3450" s="2">
+        <v>3.33</v>
+      </c>
+      <c r="F3450" s="2">
+        <v>3.222677</v>
+      </c>
+      <c r="G3450" s="2">
+        <v>19706900</v>
+      </c>
+    </row>
+    <row r="3451" spans="1:7" s="2" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A3451" s="3">
+        <v>43305</v>
+      </c>
+      <c r="B3451" s="2">
+        <v>3.34</v>
+      </c>
+      <c r="C3451" s="2">
+        <v>3.36</v>
+      </c>
+      <c r="D3451" s="2">
+        <v>3.31</v>
+      </c>
+      <c r="E3451" s="2">
+        <v>3.31</v>
+      </c>
+      <c r="F3451" s="2">
+        <v>3.203322</v>
+      </c>
+      <c r="G3451" s="2">
+        <v>24542800</v>
+      </c>
+    </row>
+    <row r="3452" spans="1:7" s="2" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A3452" s="3">
+        <v>43306</v>
+      </c>
+      <c r="B3452" s="2">
+        <v>3.33</v>
+      </c>
+      <c r="C3452" s="2">
+        <v>3.34</v>
+      </c>
+      <c r="D3452" s="2">
+        <v>3.31</v>
+      </c>
+      <c r="E3452" s="2">
+        <v>3.32</v>
+      </c>
+      <c r="F3452" s="2">
+        <v>3.2130000000000001</v>
+      </c>
+      <c r="G3452" s="2">
+        <v>17009300</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:B24"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{910235DE-AC0F-41F2-B6AD-8AD8099AF377}">
+  <dimension ref="A1:G166"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A92" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="10.7109375" style="2" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="5.85546875" style="2" bestFit="1" customWidth="1"/>
+    <col min="3" max="4" width="5" style="2" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="5.85546875" style="2" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="9.28515625" style="2" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="11" style="2" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A1" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="E1" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="F1" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="G1" s="2" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="2" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A2" s="3">
+        <v>38291</v>
+      </c>
+      <c r="B2" s="2">
+        <v>2.38</v>
+      </c>
+      <c r="C2" s="2">
+        <v>2.41</v>
+      </c>
+      <c r="D2" s="2">
+        <v>2.2999999999999998</v>
+      </c>
+      <c r="E2" s="2">
+        <v>2.37</v>
+      </c>
+      <c r="F2" s="2">
+        <v>1.3709709999999999</v>
+      </c>
+      <c r="G2" s="2">
+        <v>667357000</v>
+      </c>
+    </row>
+    <row r="3" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A3" s="3">
+        <v>38321</v>
+      </c>
+      <c r="B3" s="2">
+        <v>2.37</v>
+      </c>
+      <c r="C3" s="2">
+        <v>2.4300000000000002</v>
+      </c>
+      <c r="D3" s="2">
+        <v>2.33</v>
+      </c>
+      <c r="E3" s="2">
+        <v>2.38</v>
+      </c>
+      <c r="F3" s="2">
+        <v>1.3767560000000001</v>
+      </c>
+      <c r="G3" s="2">
+        <v>316657000</v>
+      </c>
+    </row>
+    <row r="4" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A4" s="3">
+        <v>38352</v>
+      </c>
+      <c r="B4" s="2">
+        <v>2.37</v>
+      </c>
+      <c r="C4" s="2">
+        <v>2.56</v>
+      </c>
+      <c r="D4" s="2">
+        <v>2.36</v>
+      </c>
+      <c r="E4" s="2">
+        <v>2.5499999999999998</v>
+      </c>
+      <c r="F4" s="2">
+        <v>1.475096</v>
+      </c>
+      <c r="G4" s="2">
+        <v>372874000</v>
+      </c>
+    </row>
+    <row r="5" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A5" s="3">
+        <v>38383</v>
+      </c>
+      <c r="B5" s="2">
+        <v>2.54</v>
+      </c>
+      <c r="C5" s="2">
+        <v>2.73</v>
+      </c>
+      <c r="D5" s="2">
+        <v>2.54</v>
+      </c>
+      <c r="E5" s="2">
+        <v>2.62</v>
+      </c>
+      <c r="F5" s="2">
+        <v>1.5155879999999999</v>
+      </c>
+      <c r="G5" s="2">
+        <v>311875000</v>
+      </c>
+    </row>
+    <row r="6" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A6" s="3">
+        <v>38411</v>
+      </c>
+      <c r="B6" s="2">
+        <v>2.61</v>
+      </c>
+      <c r="C6" s="2">
+        <v>2.72</v>
+      </c>
+      <c r="D6" s="2">
+        <v>2.54</v>
+      </c>
+      <c r="E6" s="2">
+        <v>2.58</v>
+      </c>
+      <c r="F6" s="2">
+        <v>1.4924489999999999</v>
+      </c>
+      <c r="G6" s="2">
+        <v>426809000</v>
+      </c>
+    </row>
+    <row r="7" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A7" s="3">
+        <v>38442</v>
+      </c>
+      <c r="B7" s="2">
+        <v>2.58</v>
+      </c>
+      <c r="C7" s="2">
+        <v>2.69</v>
+      </c>
+      <c r="D7" s="2">
+        <v>2.4700000000000002</v>
+      </c>
+      <c r="E7" s="2">
+        <v>2.56</v>
+      </c>
+      <c r="F7" s="2">
+        <v>1.48088</v>
+      </c>
+      <c r="G7" s="2">
+        <v>310377000</v>
+      </c>
+    </row>
+    <row r="8" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A8" s="3">
+        <v>38472</v>
+      </c>
+      <c r="B8" s="2">
+        <v>2.58</v>
+      </c>
+      <c r="C8" s="2">
+        <v>2.68</v>
+      </c>
+      <c r="D8" s="2">
+        <v>2.52</v>
+      </c>
+      <c r="E8" s="2">
+        <v>2.6</v>
+      </c>
+      <c r="F8" s="2">
+        <v>1.504019</v>
+      </c>
+      <c r="G8" s="2">
+        <v>273364000</v>
+      </c>
+    </row>
+    <row r="9" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A9" s="3">
+        <v>38503</v>
+      </c>
+      <c r="B9" s="2">
+        <v>2.6</v>
+      </c>
+      <c r="C9" s="2">
+        <v>2.77</v>
+      </c>
+      <c r="D9" s="2">
+        <v>2.58</v>
+      </c>
+      <c r="E9" s="2">
+        <v>2.77</v>
+      </c>
+      <c r="F9" s="2">
+        <v>1.6023590000000001</v>
+      </c>
+      <c r="G9" s="2">
+        <v>390037000</v>
+      </c>
+    </row>
+    <row r="10" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A10" s="3">
+        <v>38533</v>
+      </c>
+      <c r="B10" s="2">
+        <v>2.76</v>
+      </c>
+      <c r="C10" s="2">
+        <v>2.84</v>
+      </c>
+      <c r="D10" s="2">
+        <v>2.66</v>
+      </c>
+      <c r="E10" s="2">
+        <v>2.77</v>
+      </c>
+      <c r="F10" s="2">
+        <v>1.6023590000000001</v>
+      </c>
+      <c r="G10" s="2">
+        <v>485280000</v>
+      </c>
+    </row>
+    <row r="11" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A11" s="3">
+        <v>38564</v>
+      </c>
+      <c r="B11" s="2">
+        <v>2.78</v>
+      </c>
+      <c r="C11" s="2">
+        <v>2.84</v>
+      </c>
+      <c r="D11" s="2">
+        <v>2.58</v>
+      </c>
+      <c r="E11" s="2">
+        <v>2.58</v>
+      </c>
+      <c r="F11" s="2">
+        <v>1.4924489999999999</v>
+      </c>
+      <c r="G11" s="2">
+        <v>435471000</v>
+      </c>
+    </row>
+    <row r="12" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A12" s="3">
+        <v>38595</v>
+      </c>
+      <c r="B12" s="2">
+        <v>2.61</v>
+      </c>
+      <c r="C12" s="2">
+        <v>2.63</v>
+      </c>
+      <c r="D12" s="2">
+        <v>2.41</v>
+      </c>
+      <c r="E12" s="2">
+        <v>2.4500000000000002</v>
+      </c>
+      <c r="F12" s="2">
+        <v>1.417249</v>
+      </c>
+      <c r="G12" s="2">
+        <v>613285000</v>
+      </c>
+    </row>
+    <row r="13" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A13" s="3">
+        <v>38625</v>
+      </c>
+      <c r="B13" s="2">
+        <v>2.44</v>
+      </c>
+      <c r="C13" s="2">
+        <v>2.5</v>
+      </c>
+      <c r="D13" s="2">
+        <v>2.3199999999999998</v>
+      </c>
+      <c r="E13" s="2">
+        <v>2.33</v>
+      </c>
+      <c r="F13" s="2">
+        <v>1.3478319999999999</v>
+      </c>
+      <c r="G13" s="2">
+        <v>425311000</v>
+      </c>
+    </row>
+    <row r="14" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A14" s="3">
+        <v>38656</v>
+      </c>
+      <c r="B14" s="2">
+        <v>2.34</v>
+      </c>
+      <c r="C14" s="2">
+        <v>2.56</v>
+      </c>
+      <c r="D14" s="2">
+        <v>2.33</v>
+      </c>
+      <c r="E14" s="2">
+        <v>2.5099999999999998</v>
+      </c>
+      <c r="F14" s="2">
+        <v>1.4519569999999999</v>
+      </c>
+      <c r="G14" s="2">
+        <v>395387000</v>
+      </c>
+    </row>
+    <row r="15" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A15" s="3">
+        <v>38686</v>
+      </c>
+      <c r="B15" s="2">
+        <v>2.5099999999999998</v>
+      </c>
+      <c r="C15" s="2">
+        <v>2.65</v>
+      </c>
+      <c r="D15" s="2">
+        <v>2.5099999999999998</v>
+      </c>
+      <c r="E15" s="2">
+        <v>2.61</v>
+      </c>
+      <c r="F15" s="2">
+        <v>1.5098039999999999</v>
+      </c>
+      <c r="G15" s="2">
+        <v>342653000</v>
+      </c>
+    </row>
+    <row r="16" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A16" s="3">
+        <v>38717</v>
+      </c>
+      <c r="B16" s="2">
+        <v>2.62</v>
+      </c>
+      <c r="C16" s="2">
+        <v>2.68</v>
+      </c>
+      <c r="D16" s="2">
+        <v>2.46</v>
+      </c>
+      <c r="E16" s="2">
+        <v>2.54</v>
+      </c>
+      <c r="F16" s="2">
+        <v>1.469311</v>
+      </c>
+      <c r="G16" s="2">
+        <v>461699000</v>
+      </c>
+    </row>
+    <row r="17" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A17" s="3">
+        <v>38748</v>
+      </c>
+      <c r="B17" s="2">
+        <v>2.52</v>
+      </c>
+      <c r="C17" s="2">
+        <v>2.7</v>
+      </c>
+      <c r="D17" s="2">
+        <v>2.4900000000000002</v>
+      </c>
+      <c r="E17" s="2">
+        <v>2.61</v>
+      </c>
+      <c r="F17" s="2">
+        <v>1.5098039999999999</v>
+      </c>
+      <c r="G17" s="2">
+        <v>401972000</v>
+      </c>
+    </row>
+    <row r="18" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A18" s="3">
+        <v>38776</v>
+      </c>
+      <c r="B18" s="2">
+        <v>2.61</v>
+      </c>
+      <c r="C18" s="2">
+        <v>2.8</v>
+      </c>
+      <c r="D18" s="2">
+        <v>2.6</v>
+      </c>
+      <c r="E18" s="2">
+        <v>2.65</v>
+      </c>
+      <c r="F18" s="2">
+        <v>1.532942</v>
+      </c>
+      <c r="G18" s="2">
+        <v>1378565000</v>
+      </c>
+    </row>
+    <row r="19" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A19" s="3">
+        <v>38807</v>
+      </c>
+      <c r="B19" s="2">
+        <v>2.65</v>
+      </c>
+      <c r="C19" s="2">
+        <v>2.77</v>
+      </c>
+      <c r="D19" s="2">
+        <v>2.63</v>
+      </c>
+      <c r="E19" s="2">
+        <v>2.74</v>
+      </c>
+      <c r="F19" s="2">
+        <v>1.5850040000000001</v>
+      </c>
+      <c r="G19" s="2">
+        <v>2247559000</v>
+      </c>
+    </row>
+    <row r="20" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A20" s="3">
+        <v>38837</v>
+      </c>
+      <c r="B20" s="2">
+        <v>2.75</v>
+      </c>
+      <c r="C20" s="2">
+        <v>2.79</v>
+      </c>
+      <c r="D20" s="2">
+        <v>2.4900000000000002</v>
+      </c>
+      <c r="E20" s="2">
+        <v>2.5299999999999998</v>
+      </c>
+      <c r="F20" s="2">
+        <v>1.4635260000000001</v>
+      </c>
+      <c r="G20" s="2">
+        <v>1914850000</v>
+      </c>
+    </row>
+    <row r="21" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A21" s="3">
+        <v>38868</v>
+      </c>
+      <c r="B21" s="2">
+        <v>2.5299999999999998</v>
+      </c>
+      <c r="C21" s="2">
+        <v>2.56</v>
+      </c>
+      <c r="D21" s="2">
+        <v>2.35</v>
+      </c>
+      <c r="E21" s="2">
+        <v>2.54</v>
+      </c>
+      <c r="F21" s="2">
+        <v>1.469311</v>
+      </c>
+      <c r="G21" s="2">
+        <v>680235000</v>
+      </c>
+    </row>
+    <row r="22" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A22" s="3">
+        <v>38898</v>
+      </c>
+      <c r="B22" s="2">
+        <v>2.5499999999999998</v>
+      </c>
+      <c r="C22" s="2">
+        <v>2.59</v>
+      </c>
+      <c r="D22" s="2">
+        <v>2.41</v>
+      </c>
+      <c r="E22" s="2">
+        <v>2.59</v>
+      </c>
+      <c r="F22" s="2">
+        <v>1.4982340000000001</v>
+      </c>
+      <c r="G22" s="2">
+        <v>376011000</v>
+      </c>
+    </row>
+    <row r="23" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A23" s="3">
+        <v>38929</v>
+      </c>
+      <c r="B23" s="2">
+        <v>2.59</v>
+      </c>
+      <c r="C23" s="2">
+        <v>2.6</v>
+      </c>
+      <c r="D23" s="2">
+        <v>2.41</v>
+      </c>
+      <c r="E23" s="2">
+        <v>2.4900000000000002</v>
+      </c>
+      <c r="F23" s="2">
+        <v>1.4403870000000001</v>
+      </c>
+      <c r="G23" s="2">
+        <v>2235520000</v>
+      </c>
+    </row>
+    <row r="24" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A24" s="3">
+        <v>38960</v>
+      </c>
+      <c r="B24" s="2">
+        <v>2.48</v>
+      </c>
+      <c r="C24" s="2">
+        <v>2.52</v>
+      </c>
+      <c r="D24" s="2">
+        <v>2.36</v>
+      </c>
+      <c r="E24" s="2">
+        <v>2.44</v>
+      </c>
+      <c r="F24" s="2">
+        <v>1.4688410000000001</v>
+      </c>
+      <c r="G24" s="2">
+        <v>428984</v>
+      </c>
+    </row>
+    <row r="25" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A25" s="3">
+        <v>38990</v>
+      </c>
+      <c r="B25" s="2">
+        <v>2.4300000000000002</v>
+      </c>
+      <c r="C25" s="2">
+        <v>2.67</v>
+      </c>
+      <c r="D25" s="2">
+        <v>2.39</v>
+      </c>
+      <c r="E25" s="2">
+        <v>2.65</v>
+      </c>
+      <c r="F25" s="2">
+        <v>1.5952569999999999</v>
+      </c>
+      <c r="G25" s="2">
+        <v>574811</v>
+      </c>
+    </row>
+    <row r="26" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A26" s="3">
+        <v>39021</v>
+      </c>
+      <c r="B26" s="2">
+        <v>2.67</v>
+      </c>
+      <c r="C26" s="2">
+        <v>2.99</v>
+      </c>
+      <c r="D26" s="2">
+        <v>2.66</v>
+      </c>
+      <c r="E26" s="2">
+        <v>2.88</v>
+      </c>
+      <c r="F26" s="2">
+        <v>1.733714</v>
+      </c>
+      <c r="G26" s="2">
+        <v>127490475</v>
+      </c>
+    </row>
+    <row r="27" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A27" s="3">
+        <v>39051</v>
+      </c>
+      <c r="B27" s="2">
+        <v>2.9</v>
+      </c>
+      <c r="C27" s="2">
+        <v>3.46</v>
+      </c>
+      <c r="D27" s="2">
+        <v>2.88</v>
+      </c>
+      <c r="E27" s="2">
+        <v>3.28</v>
+      </c>
+      <c r="F27" s="2">
+        <v>1.9745060000000001</v>
+      </c>
+      <c r="G27" s="2">
+        <v>32257048</v>
+      </c>
+    </row>
+    <row r="28" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A28" s="3">
+        <v>39082</v>
+      </c>
+      <c r="B28" s="2">
+        <v>3.36</v>
+      </c>
+      <c r="C28" s="2">
+        <v>3.58</v>
+      </c>
+      <c r="D28" s="2">
+        <v>3.2</v>
+      </c>
+      <c r="E28" s="2">
+        <v>3.5</v>
+      </c>
+      <c r="F28" s="2">
+        <v>2.13584</v>
+      </c>
+      <c r="G28" s="2">
+        <v>502279</v>
+      </c>
+    </row>
+    <row r="29" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A29" s="3">
+        <v>39113</v>
+      </c>
+      <c r="B29" s="2">
+        <v>3.54</v>
+      </c>
+      <c r="C29" s="2">
+        <v>3.7</v>
+      </c>
+      <c r="D29" s="2">
+        <v>3.1</v>
+      </c>
+      <c r="E29" s="2">
+        <v>3.18</v>
+      </c>
+      <c r="F29" s="2">
+        <v>1.940563</v>
+      </c>
+      <c r="G29" s="2">
+        <v>20819217</v>
+      </c>
+    </row>
+    <row r="30" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A30" s="3">
+        <v>39141</v>
+      </c>
+      <c r="B30" s="2">
+        <v>3.22</v>
+      </c>
+      <c r="C30" s="2">
+        <v>3.36</v>
+      </c>
+      <c r="D30" s="2">
+        <v>3.02</v>
+      </c>
+      <c r="E30" s="2">
+        <v>3.28</v>
+      </c>
+      <c r="F30" s="2">
+        <v>2.0015869999999998</v>
+      </c>
+      <c r="G30" s="2">
+        <v>16832388</v>
+      </c>
+    </row>
+    <row r="31" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A31" s="3">
+        <v>39172</v>
+      </c>
+      <c r="B31" s="2">
+        <v>3.28</v>
+      </c>
+      <c r="C31" s="2">
+        <v>3.6</v>
+      </c>
+      <c r="D31" s="2">
+        <v>3.24</v>
+      </c>
+      <c r="E31" s="2">
+        <v>3.32</v>
+      </c>
+      <c r="F31" s="2">
+        <v>2.0259969999999998</v>
+      </c>
+      <c r="G31" s="2">
+        <v>346961</v>
+      </c>
+    </row>
+    <row r="32" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A32" s="3">
+        <v>39202</v>
+      </c>
+      <c r="B32" s="2">
+        <v>3.36</v>
+      </c>
+      <c r="C32" s="2">
+        <v>3.56</v>
+      </c>
+      <c r="D32" s="2">
+        <v>3.28</v>
+      </c>
+      <c r="E32" s="2">
+        <v>3.54</v>
+      </c>
+      <c r="F32" s="2">
+        <v>2.16025</v>
+      </c>
+      <c r="G32" s="2">
+        <v>42545059</v>
+      </c>
+    </row>
+    <row r="33" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A33" s="3">
+        <v>39233</v>
+      </c>
+      <c r="B33" s="2">
+        <v>3.58</v>
+      </c>
+      <c r="C33" s="2">
+        <v>3.6</v>
+      </c>
+      <c r="D33" s="2">
+        <v>3.34</v>
+      </c>
+      <c r="E33" s="2">
+        <v>3.4</v>
+      </c>
+      <c r="F33" s="2">
+        <v>2.0748160000000002</v>
+      </c>
+      <c r="G33" s="2">
+        <v>45976383</v>
+      </c>
+    </row>
+    <row r="34" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A34" s="3">
+        <v>39263</v>
+      </c>
+      <c r="B34" s="2">
+        <v>3.42</v>
+      </c>
+      <c r="C34" s="2">
+        <v>3.56</v>
+      </c>
+      <c r="D34" s="2">
+        <v>3.36</v>
+      </c>
+      <c r="E34" s="2">
+        <v>3.5</v>
+      </c>
+      <c r="F34" s="2">
+        <v>2.13584</v>
+      </c>
+      <c r="G34" s="2">
+        <v>41875926</v>
+      </c>
+    </row>
+    <row r="35" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A35" s="3">
+        <v>39294</v>
+      </c>
+      <c r="B35" s="2">
+        <v>3.48</v>
+      </c>
+      <c r="C35" s="2">
+        <v>3.72</v>
+      </c>
+      <c r="D35" s="2">
+        <v>3.16</v>
+      </c>
+      <c r="E35" s="2">
+        <v>3.64</v>
+      </c>
+      <c r="F35" s="2">
+        <v>2.2212740000000002</v>
+      </c>
+      <c r="G35" s="2">
+        <v>715772</v>
+      </c>
+    </row>
+    <row r="36" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A36" s="3">
+        <v>39325</v>
+      </c>
+      <c r="B36" s="2">
+        <v>3.64</v>
+      </c>
+      <c r="C36" s="2">
+        <v>4.0999999999999996</v>
+      </c>
+      <c r="D36" s="2">
+        <v>3.56</v>
+      </c>
+      <c r="E36" s="2">
+        <v>4.0199999999999996</v>
+      </c>
+      <c r="F36" s="2">
+        <v>2.4531649999999998</v>
+      </c>
+      <c r="G36" s="2">
+        <v>63718188</v>
+      </c>
+    </row>
+    <row r="37" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A37" s="3">
+        <v>39355</v>
+      </c>
+      <c r="B37" s="2">
+        <v>4.0999999999999996</v>
+      </c>
+      <c r="C37" s="2">
+        <v>4.22</v>
+      </c>
+      <c r="D37" s="2">
+        <v>3.8</v>
+      </c>
+      <c r="E37" s="2">
+        <v>4.08</v>
+      </c>
+      <c r="F37" s="2">
+        <v>2.489779</v>
+      </c>
+      <c r="G37" s="2">
+        <v>80124873</v>
+      </c>
+    </row>
+    <row r="38" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A38" s="3">
+        <v>39386</v>
+      </c>
+      <c r="B38" s="2">
+        <v>4.12</v>
+      </c>
+      <c r="C38" s="2">
+        <v>4.1399999999999997</v>
+      </c>
+      <c r="D38" s="2">
+        <v>3.52</v>
+      </c>
+      <c r="E38" s="2">
+        <v>3.88</v>
+      </c>
+      <c r="F38" s="2">
+        <v>2.367731</v>
+      </c>
+      <c r="G38" s="2">
+        <v>18721645</v>
+      </c>
+    </row>
+    <row r="39" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A39" s="3">
+        <v>39416</v>
+      </c>
+      <c r="B39" s="2">
+        <v>3.88</v>
+      </c>
+      <c r="C39" s="2">
+        <v>4.04</v>
+      </c>
+      <c r="D39" s="2">
+        <v>3.68</v>
+      </c>
+      <c r="E39" s="2">
+        <v>4</v>
+      </c>
+      <c r="F39" s="2">
+        <v>2.44096</v>
+      </c>
+      <c r="G39" s="2">
+        <v>347471139</v>
+      </c>
+    </row>
+    <row r="40" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A40" s="3">
+        <v>39447</v>
+      </c>
+      <c r="B40" s="2">
+        <v>3.98</v>
+      </c>
+      <c r="C40" s="2">
+        <v>4.1399999999999997</v>
+      </c>
+      <c r="D40" s="2">
+        <v>3.3</v>
+      </c>
+      <c r="E40" s="2">
+        <v>3.65</v>
+      </c>
+      <c r="F40" s="2">
+        <v>2.2593260000000002</v>
+      </c>
+      <c r="G40" s="2">
+        <v>727199000</v>
+      </c>
+    </row>
+    <row r="41" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A41" s="3">
+        <v>39478</v>
+      </c>
+      <c r="B41" s="2">
+        <v>3.72</v>
+      </c>
+      <c r="C41" s="2">
+        <v>4.05</v>
+      </c>
+      <c r="D41" s="2">
+        <v>3.63</v>
+      </c>
+      <c r="E41" s="2">
+        <v>3.85</v>
+      </c>
+      <c r="F41" s="2">
+        <v>2.3831250000000002</v>
+      </c>
+      <c r="G41" s="2">
+        <v>533101000</v>
+      </c>
+    </row>
+    <row r="42" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A42" s="3">
+        <v>39507</v>
+      </c>
+      <c r="B42" s="2">
+        <v>3.72</v>
+      </c>
+      <c r="C42" s="2">
+        <v>4.05</v>
+      </c>
+      <c r="D42" s="2">
+        <v>3.61</v>
+      </c>
+      <c r="E42" s="2">
+        <v>3.91</v>
+      </c>
+      <c r="F42" s="2">
+        <v>2.420264</v>
+      </c>
+      <c r="G42" s="2">
+        <v>606065000</v>
+      </c>
+    </row>
+    <row r="43" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A43" s="3">
+        <v>39538</v>
+      </c>
+      <c r="B43" s="2">
+        <v>3.93</v>
+      </c>
+      <c r="C43" s="2">
+        <v>4.0199999999999996</v>
+      </c>
+      <c r="D43" s="2">
+        <v>3.79</v>
+      </c>
+      <c r="E43" s="2">
+        <v>3.86</v>
+      </c>
+      <c r="F43" s="2">
+        <v>2.3893149999999999</v>
+      </c>
+      <c r="G43" s="2">
+        <v>480986000</v>
+      </c>
+    </row>
+    <row r="44" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A44" s="3">
+        <v>39568</v>
+      </c>
+      <c r="B44" s="2">
+        <v>3.89</v>
+      </c>
+      <c r="C44" s="2">
+        <v>3.94</v>
+      </c>
+      <c r="D44" s="2">
+        <v>3.58</v>
+      </c>
+      <c r="E44" s="2">
+        <v>3.81</v>
+      </c>
+      <c r="F44" s="2">
+        <v>2.358365</v>
+      </c>
+      <c r="G44" s="2">
+        <v>606989000</v>
+      </c>
+    </row>
+    <row r="45" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A45" s="3">
+        <v>39599</v>
+      </c>
+      <c r="B45" s="2">
+        <v>3.75</v>
+      </c>
+      <c r="C45" s="2">
+        <v>3.78</v>
+      </c>
+      <c r="D45" s="2">
+        <v>3.57</v>
+      </c>
+      <c r="E45" s="2">
+        <v>3.62</v>
+      </c>
+      <c r="F45" s="2">
+        <v>2.2407560000000002</v>
+      </c>
+      <c r="G45" s="2">
+        <v>594466000</v>
+      </c>
+    </row>
+    <row r="46" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A46" s="3">
+        <v>39629</v>
+      </c>
+      <c r="B46" s="2">
+        <v>3.63</v>
+      </c>
+      <c r="C46" s="2">
+        <v>3.63</v>
+      </c>
+      <c r="D46" s="2">
+        <v>3.44</v>
+      </c>
+      <c r="E46" s="2">
+        <v>3.58</v>
+      </c>
+      <c r="F46" s="2">
+        <v>2.2159960000000001</v>
+      </c>
+      <c r="G46" s="2">
+        <v>523037000</v>
+      </c>
+    </row>
+    <row r="47" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A47" s="3">
+        <v>39660</v>
+      </c>
+      <c r="B47" s="2">
+        <v>3.56</v>
+      </c>
+      <c r="C47" s="2">
+        <v>3.63</v>
+      </c>
+      <c r="D47" s="2">
+        <v>3.39</v>
+      </c>
+      <c r="E47" s="2">
+        <v>3.53</v>
+      </c>
+      <c r="F47" s="2">
+        <v>2.185047</v>
+      </c>
+      <c r="G47" s="2">
+        <v>452375000</v>
+      </c>
+    </row>
+    <row r="48" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A48" s="3">
+        <v>39691</v>
+      </c>
+      <c r="B48" s="2">
+        <v>3.48</v>
+      </c>
+      <c r="C48" s="2">
+        <v>3.66</v>
+      </c>
+      <c r="D48" s="2">
+        <v>3.01</v>
+      </c>
+      <c r="E48" s="2">
+        <v>3.25</v>
+      </c>
+      <c r="F48" s="2">
+        <v>2.0516049999999999</v>
+      </c>
+      <c r="G48" s="2">
+        <v>792496000</v>
+      </c>
+    </row>
+    <row r="49" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A49" s="3">
+        <v>39721</v>
+      </c>
+      <c r="B49" s="2">
+        <v>3.25</v>
+      </c>
+      <c r="C49" s="2">
+        <v>3.33</v>
+      </c>
+      <c r="D49" s="2">
+        <v>1.94</v>
+      </c>
+      <c r="E49" s="2">
+        <v>2.4300000000000002</v>
+      </c>
+      <c r="F49" s="2">
+        <v>1.5339700000000001</v>
+      </c>
+      <c r="G49" s="2">
+        <v>863270000</v>
+      </c>
+    </row>
+    <row r="50" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A50" s="3">
+        <v>39752</v>
+      </c>
+      <c r="B50" s="2">
+        <v>2.5099999999999998</v>
+      </c>
+      <c r="C50" s="2">
+        <v>2.63</v>
+      </c>
+      <c r="D50" s="2">
+        <v>2.1800000000000002</v>
+      </c>
+      <c r="E50" s="2">
+        <v>2.5499999999999998</v>
+      </c>
+      <c r="F50" s="2">
+        <v>1.609721</v>
+      </c>
+      <c r="G50" s="2">
+        <v>585778000</v>
+      </c>
+    </row>
+    <row r="51" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A51" s="3">
+        <v>39782</v>
+      </c>
+      <c r="B51" s="2">
+        <v>2.5</v>
+      </c>
+      <c r="C51" s="2">
+        <v>2.75</v>
+      </c>
+      <c r="D51" s="2">
+        <v>2.42</v>
+      </c>
+      <c r="E51" s="2">
+        <v>2.5499999999999998</v>
+      </c>
+      <c r="F51" s="2">
+        <v>1.609721</v>
+      </c>
+      <c r="G51" s="2">
+        <v>437917000</v>
+      </c>
+    </row>
+    <row r="52" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A52" s="3">
+        <v>39813</v>
+      </c>
+      <c r="B52" s="2">
+        <v>2.5499999999999998</v>
+      </c>
+      <c r="C52" s="2">
+        <v>2.79</v>
+      </c>
+      <c r="D52" s="2">
+        <v>2.4</v>
+      </c>
+      <c r="E52" s="2">
+        <v>2.66</v>
+      </c>
+      <c r="F52" s="2">
+        <v>1.715133</v>
+      </c>
+      <c r="G52" s="2">
+        <v>464551000</v>
+      </c>
+    </row>
+    <row r="53" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A53" s="3">
+        <v>39844</v>
+      </c>
+      <c r="B53" s="2">
+        <v>2.65</v>
+      </c>
+      <c r="C53" s="2">
+        <v>2.71</v>
+      </c>
+      <c r="D53" s="2">
+        <v>2.4</v>
+      </c>
+      <c r="E53" s="2">
+        <v>2.46</v>
+      </c>
+      <c r="F53" s="2">
+        <v>1.5861749999999999</v>
+      </c>
+      <c r="G53" s="2">
+        <v>490514000</v>
+      </c>
+    </row>
+    <row r="54" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A54" s="3">
+        <v>39872</v>
+      </c>
+      <c r="B54" s="2">
+        <v>2.44</v>
+      </c>
+      <c r="C54" s="2">
+        <v>2.62</v>
+      </c>
+      <c r="D54" s="2">
+        <v>2.41</v>
+      </c>
+      <c r="E54" s="2">
+        <v>2.5299999999999998</v>
+      </c>
+      <c r="F54" s="2">
+        <v>1.63131</v>
+      </c>
+      <c r="G54" s="2">
+        <v>556242000</v>
+      </c>
+    </row>
+    <row r="55" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A55" s="3">
+        <v>39903</v>
+      </c>
+      <c r="B55" s="2">
+        <v>2.5299999999999998</v>
+      </c>
+      <c r="C55" s="2">
+        <v>2.68</v>
+      </c>
+      <c r="D55" s="2">
+        <v>2.4300000000000002</v>
+      </c>
+      <c r="E55" s="2">
+        <v>2.56</v>
+      </c>
+      <c r="F55" s="2">
+        <v>1.6506540000000001</v>
+      </c>
+      <c r="G55" s="2">
+        <v>614093000</v>
+      </c>
+    </row>
+    <row r="56" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A56" s="3">
+        <v>39933</v>
+      </c>
+      <c r="B56" s="2">
+        <v>2.56</v>
+      </c>
+      <c r="C56" s="2">
+        <v>3.07</v>
+      </c>
+      <c r="D56" s="2">
+        <v>2.5</v>
+      </c>
+      <c r="E56" s="2">
+        <v>3.01</v>
+      </c>
+      <c r="F56" s="2">
+        <v>1.9408080000000001</v>
+      </c>
+      <c r="G56" s="2">
+        <v>700804000</v>
+      </c>
+    </row>
+    <row r="57" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A57" s="3">
+        <v>39964</v>
+      </c>
+      <c r="B57" s="2">
+        <v>3.05</v>
+      </c>
+      <c r="C57" s="2">
+        <v>3.09</v>
+      </c>
+      <c r="D57" s="2">
+        <v>2.81</v>
+      </c>
+      <c r="E57" s="2">
+        <v>3</v>
+      </c>
+      <c r="F57" s="2">
+        <v>1.9343600000000001</v>
+      </c>
+      <c r="G57" s="2">
+        <v>482817000</v>
+      </c>
+    </row>
+    <row r="58" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A58" s="3">
+        <v>39994</v>
+      </c>
+      <c r="B58" s="2">
+        <v>2.98</v>
+      </c>
+      <c r="C58" s="2">
+        <v>3.52</v>
+      </c>
+      <c r="D58" s="2">
+        <v>2.92</v>
+      </c>
+      <c r="E58" s="2">
+        <v>3.5</v>
+      </c>
+      <c r="F58" s="2">
+        <v>2.2567529999999998</v>
+      </c>
+      <c r="G58" s="2">
+        <v>567246000</v>
+      </c>
+    </row>
+    <row r="59" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A59" s="3">
+        <v>40025</v>
+      </c>
+      <c r="B59" s="2">
+        <v>3.46</v>
+      </c>
+      <c r="C59" s="2">
+        <v>3.48</v>
+      </c>
+      <c r="D59" s="2">
+        <v>3.1</v>
+      </c>
+      <c r="E59" s="2">
+        <v>3.14</v>
+      </c>
+      <c r="F59" s="2">
+        <v>2.0246300000000002</v>
+      </c>
+      <c r="G59" s="2">
+        <v>426423000</v>
+      </c>
+    </row>
+    <row r="60" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A60" s="3">
+        <v>40056</v>
+      </c>
+      <c r="B60" s="2">
+        <v>3.16</v>
+      </c>
+      <c r="C60" s="2">
+        <v>3.3</v>
+      </c>
+      <c r="D60" s="2">
+        <v>3.11</v>
+      </c>
+      <c r="E60" s="2">
+        <v>3.25</v>
+      </c>
+      <c r="F60" s="2">
+        <v>2.1388349999999998</v>
+      </c>
+      <c r="G60" s="2">
+        <v>419886000</v>
+      </c>
+    </row>
+    <row r="61" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A61" s="3">
+        <v>40086</v>
+      </c>
+      <c r="B61" s="2">
+        <v>3.25</v>
+      </c>
+      <c r="C61" s="2">
+        <v>3.31</v>
+      </c>
+      <c r="D61" s="2">
+        <v>2.93</v>
+      </c>
+      <c r="E61" s="2">
+        <v>2.94</v>
+      </c>
+      <c r="F61" s="2">
+        <v>1.9348240000000001</v>
+      </c>
+      <c r="G61" s="2">
+        <v>612555000</v>
+      </c>
+    </row>
+    <row r="62" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A62" s="3">
+        <v>40117</v>
+      </c>
+      <c r="B62" s="2">
+        <v>2.92</v>
+      </c>
+      <c r="C62" s="2">
+        <v>2.99</v>
+      </c>
+      <c r="D62" s="2">
+        <v>2.86</v>
+      </c>
+      <c r="E62" s="2">
+        <v>2.93</v>
+      </c>
+      <c r="F62" s="2">
+        <v>1.9282429999999999</v>
+      </c>
+      <c r="G62" s="2">
+        <v>450312000</v>
+      </c>
+    </row>
+    <row r="63" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A63" s="3">
+        <v>40147</v>
+      </c>
+      <c r="B63" s="2">
+        <v>2.96</v>
+      </c>
+      <c r="C63" s="2">
+        <v>3.12</v>
+      </c>
+      <c r="D63" s="2">
+        <v>2.96</v>
+      </c>
+      <c r="E63" s="2">
+        <v>3.11</v>
+      </c>
+      <c r="F63" s="2">
+        <v>2.0467</v>
+      </c>
+      <c r="G63" s="2">
+        <v>274957000</v>
+      </c>
+    </row>
+    <row r="64" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A64" s="3">
+        <v>40178</v>
+      </c>
+      <c r="B64" s="2">
+        <v>3.11</v>
+      </c>
+      <c r="C64" s="2">
+        <v>3.16</v>
+      </c>
+      <c r="D64" s="2">
+        <v>2.95</v>
+      </c>
+      <c r="E64" s="2">
+        <v>3.01</v>
+      </c>
+      <c r="F64" s="2">
+        <v>2.0219930000000002</v>
+      </c>
+      <c r="G64" s="2">
+        <v>398439000</v>
+      </c>
+    </row>
+    <row r="65" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A65" s="3">
+        <v>40209</v>
+      </c>
+      <c r="B65" s="2">
+        <v>3</v>
+      </c>
+      <c r="C65" s="2">
+        <v>3.07</v>
+      </c>
+      <c r="D65" s="2">
+        <v>2.9</v>
+      </c>
+      <c r="E65" s="2">
+        <v>3.05</v>
+      </c>
+      <c r="F65" s="2">
+        <v>2.048864</v>
+      </c>
+      <c r="G65" s="2">
+        <v>289508000</v>
+      </c>
+    </row>
+    <row r="66" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A66" s="3">
+        <v>40237</v>
+      </c>
+      <c r="B66" s="2">
+        <v>3.05</v>
+      </c>
+      <c r="C66" s="2">
+        <v>3.29</v>
+      </c>
+      <c r="D66" s="2">
+        <v>3.04</v>
+      </c>
+      <c r="E66" s="2">
+        <v>3.17</v>
+      </c>
+      <c r="F66" s="2">
+        <v>2.1294749999999998</v>
+      </c>
+      <c r="G66" s="2">
+        <v>347837000</v>
+      </c>
+    </row>
+    <row r="67" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A67" s="3">
+        <v>40268</v>
+      </c>
+      <c r="B67" s="2">
+        <v>3.19</v>
+      </c>
+      <c r="C67" s="2">
+        <v>3.23</v>
+      </c>
+      <c r="D67" s="2">
+        <v>3</v>
+      </c>
+      <c r="E67" s="2">
+        <v>3.05</v>
+      </c>
+      <c r="F67" s="2">
+        <v>2.048864</v>
+      </c>
+      <c r="G67" s="2">
+        <v>373276000</v>
+      </c>
+    </row>
+    <row r="68" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A68" s="3">
+        <v>40298</v>
+      </c>
+      <c r="B68" s="2">
+        <v>3.01</v>
+      </c>
+      <c r="C68" s="2">
+        <v>3.04</v>
+      </c>
+      <c r="D68" s="2">
+        <v>2.75</v>
+      </c>
+      <c r="E68" s="2">
+        <v>2.9</v>
+      </c>
+      <c r="F68" s="2">
+        <v>1.9480999999999999</v>
+      </c>
+      <c r="G68" s="2">
+        <v>481354000</v>
+      </c>
+    </row>
+    <row r="69" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A69" s="3">
+        <v>40329</v>
+      </c>
+      <c r="B69" s="2">
+        <v>2.88</v>
+      </c>
+      <c r="C69" s="2">
+        <v>3.13</v>
+      </c>
+      <c r="D69" s="2">
+        <v>2.86</v>
+      </c>
+      <c r="E69" s="2">
+        <v>3.04</v>
+      </c>
+      <c r="F69" s="2">
+        <v>2.0421459999999998</v>
+      </c>
+      <c r="G69" s="2">
+        <v>396617000</v>
+      </c>
+    </row>
+    <row r="70" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A70" s="3">
+        <v>40359</v>
+      </c>
+      <c r="B70" s="2">
+        <v>3.02</v>
+      </c>
+      <c r="C70" s="2">
+        <v>3.17</v>
+      </c>
+      <c r="D70" s="2">
+        <v>3</v>
+      </c>
+      <c r="E70" s="2">
+        <v>3.12</v>
+      </c>
+      <c r="F70" s="2">
+        <v>2.0958869999999998</v>
+      </c>
+      <c r="G70" s="2">
+        <v>374437000</v>
+      </c>
+    </row>
+    <row r="71" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A71" s="3">
+        <v>40390</v>
+      </c>
+      <c r="B71" s="2">
+        <v>3.14</v>
+      </c>
+      <c r="C71" s="2">
+        <v>3.17</v>
+      </c>
+      <c r="D71" s="2">
+        <v>2.92</v>
+      </c>
+      <c r="E71" s="2">
+        <v>3.08</v>
+      </c>
+      <c r="F71" s="2">
+        <v>2.069016</v>
+      </c>
+      <c r="G71" s="2">
+        <v>432582000</v>
+      </c>
+    </row>
+    <row r="72" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A72" s="3">
+        <v>40421</v>
+      </c>
+      <c r="B72" s="2">
+        <v>3.08</v>
+      </c>
+      <c r="C72" s="2">
+        <v>3.17</v>
+      </c>
+      <c r="D72" s="2">
+        <v>3.03</v>
+      </c>
+      <c r="E72" s="2">
+        <v>3.14</v>
+      </c>
+      <c r="F72" s="2">
+        <v>2.1648309999999999</v>
+      </c>
+      <c r="G72" s="2">
+        <v>358096000</v>
+      </c>
+    </row>
+    <row r="73" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A73" s="3">
+        <v>40451</v>
+      </c>
+      <c r="B73" s="2">
+        <v>3.14</v>
+      </c>
+      <c r="C73" s="2">
+        <v>3.2</v>
+      </c>
+      <c r="D73" s="2">
+        <v>3.03</v>
+      </c>
+      <c r="E73" s="2">
+        <v>3.09</v>
+      </c>
+      <c r="F73" s="2">
+        <v>2.1303589999999999</v>
+      </c>
+      <c r="G73" s="2">
+        <v>363318000</v>
+      </c>
+    </row>
+    <row r="74" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A74" s="3">
+        <v>40482</v>
+      </c>
+      <c r="B74" s="2">
+        <v>3.1</v>
+      </c>
+      <c r="C74" s="2">
+        <v>3.33</v>
+      </c>
+      <c r="D74" s="2">
+        <v>3.06</v>
+      </c>
+      <c r="E74" s="2">
+        <v>3.1</v>
+      </c>
+      <c r="F74" s="2">
+        <v>2.1372529999999998</v>
+      </c>
+      <c r="G74" s="2">
+        <v>500512000</v>
+      </c>
+    </row>
+    <row r="75" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A75" s="3">
+        <v>40512</v>
+      </c>
+      <c r="B75" s="2">
+        <v>3.09</v>
+      </c>
+      <c r="C75" s="2">
+        <v>3.2</v>
+      </c>
+      <c r="D75" s="2">
+        <v>3.03</v>
+      </c>
+      <c r="E75" s="2">
+        <v>3.05</v>
+      </c>
+      <c r="F75" s="2">
+        <v>2.1027809999999998</v>
+      </c>
+      <c r="G75" s="2">
+        <v>351235000</v>
+      </c>
+    </row>
+    <row r="76" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A76" s="3">
+        <v>40543</v>
+      </c>
+      <c r="B76" s="2">
+        <v>3.07</v>
+      </c>
+      <c r="C76" s="2">
+        <v>3.16</v>
+      </c>
+      <c r="D76" s="2">
+        <v>3.03</v>
+      </c>
+      <c r="E76" s="2">
+        <v>3.1</v>
+      </c>
+      <c r="F76" s="2">
+        <v>2.185505</v>
+      </c>
+      <c r="G76" s="2">
+        <v>274634000</v>
+      </c>
+    </row>
+    <row r="77" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A77" s="3">
+        <v>40574</v>
+      </c>
+      <c r="B77" s="2">
+        <v>3.1</v>
+      </c>
+      <c r="C77" s="2">
+        <v>3.13</v>
+      </c>
+      <c r="D77" s="2">
+        <v>2.85</v>
+      </c>
+      <c r="E77" s="2">
+        <v>2.97</v>
+      </c>
+      <c r="F77" s="2">
+        <v>2.0938539999999999</v>
+      </c>
+      <c r="G77" s="2">
+        <v>379893000</v>
+      </c>
+    </row>
+    <row r="78" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A78" s="3">
+        <v>40602</v>
+      </c>
+      <c r="B78" s="2">
+        <v>2.99</v>
+      </c>
+      <c r="C78" s="2">
+        <v>3.07</v>
+      </c>
+      <c r="D78" s="2">
+        <v>2.84</v>
+      </c>
+      <c r="E78" s="2">
+        <v>3.02</v>
+      </c>
+      <c r="F78" s="2">
+        <v>2.1291039999999999</v>
+      </c>
+      <c r="G78" s="2">
+        <v>531079000</v>
+      </c>
+    </row>
+    <row r="79" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A79" s="3">
+        <v>40633</v>
+      </c>
+      <c r="B79" s="2">
+        <v>3.01</v>
+      </c>
+      <c r="C79" s="2">
+        <v>3.16</v>
+      </c>
+      <c r="D79" s="2">
+        <v>2.99</v>
+      </c>
+      <c r="E79" s="2">
+        <v>3.12</v>
+      </c>
+      <c r="F79" s="2">
+        <v>2.199605</v>
+      </c>
+      <c r="G79" s="2">
+        <v>347567000</v>
+      </c>
+    </row>
+    <row r="80" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A80" s="3">
+        <v>40663</v>
+      </c>
+      <c r="B80" s="2">
+        <v>3.12</v>
+      </c>
+      <c r="C80" s="2">
+        <v>3.24</v>
+      </c>
+      <c r="D80" s="2">
+        <v>3.04</v>
+      </c>
+      <c r="E80" s="2">
+        <v>3.21</v>
+      </c>
+      <c r="F80" s="2">
+        <v>2.2630539999999999</v>
+      </c>
+      <c r="G80" s="2">
+        <v>337136000</v>
+      </c>
+    </row>
+    <row r="81" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A81" s="3">
+        <v>40694</v>
+      </c>
+      <c r="B81" s="2">
+        <v>3.21</v>
+      </c>
+      <c r="C81" s="2">
+        <v>3.26</v>
+      </c>
+      <c r="D81" s="2">
+        <v>3</v>
+      </c>
+      <c r="E81" s="2">
+        <v>3.16</v>
+      </c>
+      <c r="F81" s="2">
+        <v>2.227805</v>
+      </c>
+      <c r="G81" s="2">
+        <v>566917000</v>
+      </c>
+    </row>
+    <row r="82" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A82" s="3">
+        <v>40724</v>
+      </c>
+      <c r="B82" s="2">
+        <v>3.16</v>
+      </c>
+      <c r="C82" s="2">
+        <v>3.37</v>
+      </c>
+      <c r="D82" s="2">
+        <v>3.14</v>
+      </c>
+      <c r="E82" s="2">
+        <v>3.36</v>
+      </c>
+      <c r="F82" s="2">
+        <v>2.368805</v>
+      </c>
+      <c r="G82" s="2">
+        <v>432657000</v>
+      </c>
+    </row>
+    <row r="83" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A83" s="3">
+        <v>40755</v>
+      </c>
+      <c r="B83" s="2">
+        <v>3.37</v>
+      </c>
+      <c r="C83" s="2">
+        <v>3.41</v>
+      </c>
+      <c r="D83" s="2">
+        <v>2.84</v>
+      </c>
+      <c r="E83" s="2">
+        <v>3.11</v>
+      </c>
+      <c r="F83" s="2">
+        <v>2.1925539999999999</v>
+      </c>
+      <c r="G83" s="2">
+        <v>819474000</v>
+      </c>
+    </row>
+    <row r="84" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A84" s="3">
+        <v>40786</v>
+      </c>
+      <c r="B84" s="2">
+        <v>3.12</v>
+      </c>
+      <c r="C84" s="2">
+        <v>3.18</v>
+      </c>
+      <c r="D84" s="2">
+        <v>3</v>
+      </c>
+      <c r="E84" s="2">
+        <v>3.18</v>
+      </c>
+      <c r="F84" s="2">
+        <v>2.304373</v>
+      </c>
+      <c r="G84" s="2">
+        <v>588248000</v>
+      </c>
+    </row>
+    <row r="85" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A85" s="3">
+        <v>40816</v>
+      </c>
+      <c r="B85" s="2">
+        <v>3.16</v>
+      </c>
+      <c r="C85" s="2">
+        <v>3.28</v>
+      </c>
+      <c r="D85" s="2">
+        <v>3.09</v>
+      </c>
+      <c r="E85" s="2">
+        <v>3.19</v>
+      </c>
+      <c r="F85" s="2">
+        <v>2.3116189999999999</v>
+      </c>
+      <c r="G85" s="2">
+        <v>459531000</v>
+      </c>
+    </row>
+    <row r="86" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A86" s="3">
+        <v>40847</v>
+      </c>
+      <c r="B86" s="2">
+        <v>3.18</v>
+      </c>
+      <c r="C86" s="2">
+        <v>3.23</v>
+      </c>
+      <c r="D86" s="2">
+        <v>3.01</v>
+      </c>
+      <c r="E86" s="2">
+        <v>3.07</v>
+      </c>
+      <c r="F86" s="2">
+        <v>2.2246610000000002</v>
+      </c>
+      <c r="G86" s="2">
+        <v>452590000</v>
+      </c>
+    </row>
+    <row r="87" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A87" s="3">
+        <v>40877</v>
+      </c>
+      <c r="B87" s="2">
+        <v>3.1</v>
+      </c>
+      <c r="C87" s="2">
+        <v>3.25</v>
+      </c>
+      <c r="D87" s="2">
+        <v>3.03</v>
+      </c>
+      <c r="E87" s="2">
+        <v>3.09</v>
+      </c>
+      <c r="F87" s="2">
+        <v>2.2391549999999998</v>
+      </c>
+      <c r="G87" s="2">
+        <v>388279000</v>
+      </c>
+    </row>
+    <row r="88" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A88" s="3">
+        <v>40908</v>
+      </c>
+      <c r="B88" s="2">
+        <v>3.1</v>
+      </c>
+      <c r="C88" s="2">
+        <v>3.16</v>
+      </c>
+      <c r="D88" s="2">
+        <v>3.02</v>
+      </c>
+      <c r="E88" s="2">
+        <v>3.1</v>
+      </c>
+      <c r="F88" s="2">
+        <v>2.2962880000000001</v>
+      </c>
+      <c r="G88" s="2">
+        <v>494066000</v>
+      </c>
+    </row>
+    <row r="89" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A89" s="3">
+        <v>40939</v>
+      </c>
+      <c r="B89" s="2">
+        <v>3.1</v>
+      </c>
+      <c r="C89" s="2">
+        <v>3.17</v>
+      </c>
+      <c r="D89" s="2">
+        <v>3.04</v>
+      </c>
+      <c r="E89" s="2">
+        <v>3.17</v>
+      </c>
+      <c r="F89" s="2">
+        <v>2.3481399999999999</v>
+      </c>
+      <c r="G89" s="2">
+        <v>577783000</v>
+      </c>
+    </row>
+    <row r="90" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A90" s="3">
+        <v>40968</v>
+      </c>
+      <c r="B90" s="2">
+        <v>3.16</v>
+      </c>
+      <c r="C90" s="2">
+        <v>3.18</v>
+      </c>
+      <c r="D90" s="2">
+        <v>3.08</v>
+      </c>
+      <c r="E90" s="2">
+        <v>3.15</v>
+      </c>
+      <c r="F90" s="2">
+        <v>2.3333249999999999</v>
+      </c>
+      <c r="G90" s="2">
+        <v>367064000</v>
+      </c>
+    </row>
+    <row r="91" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A91" s="3">
+        <v>40999</v>
+      </c>
+      <c r="B91" s="2">
+        <v>3.14</v>
+      </c>
+      <c r="C91" s="2">
+        <v>3.16</v>
+      </c>
+      <c r="D91" s="2">
+        <v>3.08</v>
+      </c>
+      <c r="E91" s="2">
+        <v>3.12</v>
+      </c>
+      <c r="F91" s="2">
+        <v>2.3111030000000001</v>
+      </c>
+      <c r="G91" s="2">
+        <v>251715000</v>
+      </c>
+    </row>
+    <row r="92" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A92" s="3">
+        <v>41029</v>
+      </c>
+      <c r="B92" s="2">
+        <v>3.11</v>
+      </c>
+      <c r="C92" s="2">
+        <v>3.26</v>
+      </c>
+      <c r="D92" s="2">
+        <v>3.02</v>
+      </c>
+      <c r="E92" s="2">
+        <v>3.1</v>
+      </c>
+      <c r="F92" s="2">
+        <v>2.2962880000000001</v>
+      </c>
+      <c r="G92" s="2">
+        <v>530427000</v>
+      </c>
+    </row>
+    <row r="93" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A93" s="3">
+        <v>41060</v>
+      </c>
+      <c r="B93" s="2">
+        <v>3.08</v>
+      </c>
+      <c r="C93" s="2">
+        <v>3.3</v>
+      </c>
+      <c r="D93" s="2">
+        <v>3.05</v>
+      </c>
+      <c r="E93" s="2">
+        <v>3.3</v>
+      </c>
+      <c r="F93" s="2">
+        <v>2.4444360000000001</v>
+      </c>
+      <c r="G93" s="2">
+        <v>342844000</v>
+      </c>
+    </row>
+    <row r="94" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A94" s="3">
+        <v>41090</v>
+      </c>
+      <c r="B94" s="2">
+        <v>3.29</v>
+      </c>
+      <c r="C94" s="2">
+        <v>3.62</v>
+      </c>
+      <c r="D94" s="2">
+        <v>3.23</v>
+      </c>
+      <c r="E94" s="2">
+        <v>3.58</v>
+      </c>
+      <c r="F94" s="2">
+        <v>2.6518419999999998</v>
+      </c>
+      <c r="G94" s="2">
+        <v>455738000</v>
+      </c>
+    </row>
+    <row r="95" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A95" s="3">
+        <v>41121</v>
+      </c>
+      <c r="B95" s="2">
+        <v>3.58</v>
+      </c>
+      <c r="C95" s="2">
+        <v>3.61</v>
+      </c>
+      <c r="D95" s="2">
+        <v>3.28</v>
+      </c>
+      <c r="E95" s="2">
+        <v>3.39</v>
+      </c>
+      <c r="F95" s="2">
+        <v>2.5111020000000002</v>
+      </c>
+      <c r="G95" s="2">
+        <v>438919000</v>
+      </c>
+    </row>
+    <row r="96" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A96" s="3">
+        <v>41152</v>
+      </c>
+      <c r="B96" s="2">
+        <v>3.36</v>
+      </c>
+      <c r="C96" s="2">
+        <v>3.39</v>
+      </c>
+      <c r="D96" s="2">
+        <v>3.16</v>
+      </c>
+      <c r="E96" s="2">
+        <v>3.2</v>
+      </c>
+      <c r="F96" s="2">
+        <v>2.4321980000000001</v>
+      </c>
+      <c r="G96" s="2">
+        <v>838949000</v>
+      </c>
+    </row>
+    <row r="97" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A97" s="3">
+        <v>41182</v>
+      </c>
+      <c r="B97" s="2">
+        <v>3.2</v>
+      </c>
+      <c r="C97" s="2">
+        <v>3.24</v>
+      </c>
+      <c r="D97" s="2">
+        <v>3.13</v>
+      </c>
+      <c r="E97" s="2">
+        <v>3.22</v>
+      </c>
+      <c r="F97" s="2">
+        <v>2.4473989999999999</v>
+      </c>
+      <c r="G97" s="2">
+        <v>505700000</v>
+      </c>
+    </row>
+    <row r="98" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A98" s="3">
+        <v>41213</v>
+      </c>
+      <c r="B98" s="2">
+        <v>3.22</v>
+      </c>
+      <c r="C98" s="2">
+        <v>3.32</v>
+      </c>
+      <c r="D98" s="2">
+        <v>3.1</v>
+      </c>
+      <c r="E98" s="2">
+        <v>3.31</v>
+      </c>
+      <c r="F98" s="2">
+        <v>2.5158040000000002</v>
+      </c>
+      <c r="G98" s="2">
+        <v>491582000</v>
+      </c>
+    </row>
+    <row r="99" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A99" s="3">
+        <v>41243</v>
+      </c>
+      <c r="B99" s="2">
+        <v>3.33</v>
+      </c>
+      <c r="C99" s="2">
+        <v>3.42</v>
+      </c>
+      <c r="D99" s="2">
+        <v>3.27</v>
+      </c>
+      <c r="E99" s="2">
+        <v>3.3</v>
+      </c>
+      <c r="F99" s="2">
+        <v>2.5082040000000001</v>
+      </c>
+      <c r="G99" s="2">
+        <v>406162000</v>
+      </c>
+    </row>
+    <row r="100" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A100" s="3">
+        <v>41274</v>
+      </c>
+      <c r="B100" s="2">
+        <v>3.3</v>
+      </c>
+      <c r="C100" s="2">
+        <v>3.5</v>
+      </c>
+      <c r="D100" s="2">
+        <v>3.27</v>
+      </c>
+      <c r="E100" s="2">
+        <v>3.5</v>
+      </c>
+      <c r="F100" s="2">
+        <v>2.7145060000000001</v>
+      </c>
+      <c r="G100" s="2">
+        <v>501941000</v>
+      </c>
+    </row>
+    <row r="101" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A101" s="3">
+        <v>41305</v>
+      </c>
+      <c r="B101" s="2">
+        <v>3.5</v>
+      </c>
+      <c r="C101" s="2">
+        <v>3.62</v>
+      </c>
+      <c r="D101" s="2">
+        <v>3.4</v>
+      </c>
+      <c r="E101" s="2">
+        <v>3.44</v>
+      </c>
+      <c r="F101" s="2">
+        <v>2.6679719999999998</v>
+      </c>
+      <c r="G101" s="2">
+        <v>400082000</v>
+      </c>
+    </row>
+    <row r="102" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A102" s="3">
+        <v>41333</v>
+      </c>
+      <c r="B102" s="2">
+        <v>3.43</v>
+      </c>
+      <c r="C102" s="2">
+        <v>3.64</v>
+      </c>
+      <c r="D102" s="2">
+        <v>3.41</v>
+      </c>
+      <c r="E102" s="2">
+        <v>3.59</v>
+      </c>
+      <c r="F102" s="2">
+        <v>2.7843079999999998</v>
+      </c>
+      <c r="G102" s="2">
+        <v>388282000</v>
+      </c>
+    </row>
+    <row r="103" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A103" s="3">
+        <v>41364</v>
+      </c>
+      <c r="B103" s="2">
+        <v>3.6</v>
+      </c>
+      <c r="C103" s="2">
+        <v>3.94</v>
+      </c>
+      <c r="D103" s="2">
+        <v>3.53</v>
+      </c>
+      <c r="E103" s="2">
+        <v>3.93</v>
+      </c>
+      <c r="F103" s="2">
+        <v>3.048003</v>
+      </c>
+      <c r="G103" s="2">
+        <v>448390000</v>
+      </c>
+    </row>
+    <row r="104" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A104" s="3">
+        <v>41394</v>
+      </c>
+      <c r="B104" s="2">
+        <v>3.93</v>
+      </c>
+      <c r="C104" s="2">
+        <v>4.09</v>
+      </c>
+      <c r="D104" s="2">
+        <v>3.7</v>
+      </c>
+      <c r="E104" s="2">
+        <v>3.75</v>
+      </c>
+      <c r="F104" s="2">
+        <v>2.9083999999999999</v>
+      </c>
+      <c r="G104" s="2">
+        <v>520321000</v>
+      </c>
+    </row>
+    <row r="105" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A105" s="3">
+        <v>41425</v>
+      </c>
+      <c r="B105" s="2">
+        <v>3.73</v>
+      </c>
+      <c r="C105" s="2">
+        <v>3.82</v>
+      </c>
+      <c r="D105" s="2">
+        <v>3.5</v>
+      </c>
+      <c r="E105" s="2">
+        <v>3.77</v>
+      </c>
+      <c r="F105" s="2">
+        <v>2.9239109999999999</v>
+      </c>
+      <c r="G105" s="2">
+        <v>632048000</v>
+      </c>
+    </row>
+    <row r="106" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A106" s="3">
+        <v>41455</v>
+      </c>
+      <c r="B106" s="2">
+        <v>3.73</v>
+      </c>
+      <c r="C106" s="2">
+        <v>3.98</v>
+      </c>
+      <c r="D106" s="2">
+        <v>3.61</v>
+      </c>
+      <c r="E106" s="2">
+        <v>3.93</v>
+      </c>
+      <c r="F106" s="2">
+        <v>3.048003</v>
+      </c>
+      <c r="G106" s="2">
+        <v>361005000</v>
+      </c>
+    </row>
+    <row r="107" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A107" s="3">
+        <v>41486</v>
+      </c>
+      <c r="B107" s="2">
+        <v>3.95</v>
+      </c>
+      <c r="C107" s="2">
+        <v>3.97</v>
+      </c>
+      <c r="D107" s="2">
+        <v>3.45</v>
+      </c>
+      <c r="E107" s="2">
+        <v>3.51</v>
+      </c>
+      <c r="F107" s="2">
+        <v>2.7222620000000002</v>
+      </c>
+      <c r="G107" s="2">
+        <v>341048000</v>
+      </c>
+    </row>
+    <row r="108" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A108" s="3">
+        <v>41517</v>
+      </c>
+      <c r="B108" s="2">
+        <v>3.52</v>
+      </c>
+      <c r="C108" s="2">
+        <v>3.87</v>
+      </c>
+      <c r="D108" s="2">
+        <v>3.43</v>
+      </c>
+      <c r="E108" s="2">
+        <v>3.73</v>
+      </c>
+      <c r="F108" s="2">
+        <v>2.9682230000000001</v>
+      </c>
+      <c r="G108" s="2">
+        <v>409521000</v>
+      </c>
+    </row>
+    <row r="109" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A109" s="3">
+        <v>41547</v>
+      </c>
+      <c r="B109" s="2">
+        <v>3.75</v>
+      </c>
+      <c r="C109" s="2">
+        <v>3.84</v>
+      </c>
+      <c r="D109" s="2">
+        <v>3.65</v>
+      </c>
+      <c r="E109" s="2">
+        <v>3.78</v>
+      </c>
+      <c r="F109" s="2">
+        <v>3.0080119999999999</v>
+      </c>
+      <c r="G109" s="2">
+        <v>349307466</v>
+      </c>
+    </row>
+    <row r="110" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A110" s="3">
+        <v>41578</v>
+      </c>
+      <c r="B110" s="2">
+        <v>3.78</v>
+      </c>
+      <c r="C110" s="2">
+        <v>3.85</v>
+      </c>
+      <c r="D110" s="2">
+        <v>3.66</v>
+      </c>
+      <c r="E110" s="2">
+        <v>3.72</v>
+      </c>
+      <c r="F110" s="2">
+        <v>2.9602659999999998</v>
+      </c>
+      <c r="G110" s="2">
+        <v>312300000</v>
+      </c>
+    </row>
+    <row r="111" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A111" s="3">
+        <v>41608</v>
+      </c>
+      <c r="B111" s="2">
+        <v>3.73</v>
+      </c>
+      <c r="C111" s="2">
+        <v>3.76</v>
+      </c>
+      <c r="D111" s="2">
+        <v>3.5</v>
+      </c>
+      <c r="E111" s="2">
+        <v>3.66</v>
+      </c>
+      <c r="F111" s="2">
+        <v>2.9125200000000002</v>
+      </c>
+      <c r="G111" s="2">
+        <v>370425000</v>
+      </c>
+    </row>
+    <row r="112" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A112" s="3">
+        <v>41639</v>
+      </c>
+      <c r="B112" s="2">
+        <v>3.66</v>
+      </c>
+      <c r="C112" s="2">
+        <v>3.69</v>
+      </c>
+      <c r="D112" s="2">
+        <v>3.46</v>
+      </c>
+      <c r="E112" s="2">
+        <v>3.53</v>
+      </c>
+      <c r="F112" s="2">
+        <v>2.863305</v>
+      </c>
+      <c r="G112" s="2">
+        <v>383299000</v>
+      </c>
+    </row>
+    <row r="113" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A113" s="3">
+        <v>41670</v>
+      </c>
+      <c r="B113" s="2">
+        <v>3.53</v>
+      </c>
+      <c r="C113" s="2">
+        <v>3.66</v>
+      </c>
+      <c r="D113" s="2">
+        <v>3.42</v>
+      </c>
+      <c r="E113" s="2">
+        <v>3.6</v>
+      </c>
+      <c r="F113" s="2">
+        <v>2.9200840000000001</v>
+      </c>
+      <c r="G113" s="2">
+        <v>365073000</v>
+      </c>
+    </row>
+    <row r="114" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A114" s="3">
+        <v>41698</v>
+      </c>
+      <c r="B114" s="2">
+        <v>3.57</v>
+      </c>
+      <c r="C114" s="2">
+        <v>3.67</v>
+      </c>
+      <c r="D114" s="2">
+        <v>3.49</v>
+      </c>
+      <c r="E114" s="2">
+        <v>3.65</v>
+      </c>
+      <c r="F114" s="2">
+        <v>2.9606409999999999</v>
+      </c>
+      <c r="G114" s="2">
+        <v>321095000</v>
+      </c>
+    </row>
+    <row r="115" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A115" s="3">
+        <v>41729</v>
+      </c>
+      <c r="B115" s="2">
+        <v>3.65</v>
+      </c>
+      <c r="C115" s="2">
+        <v>3.83</v>
+      </c>
+      <c r="D115" s="2">
+        <v>3.61</v>
+      </c>
+      <c r="E115" s="2">
+        <v>3.83</v>
+      </c>
+      <c r="F115" s="2">
+        <v>3.1066449999999999</v>
+      </c>
+      <c r="G115" s="2">
+        <v>332100000</v>
+      </c>
+    </row>
+    <row r="116" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A116" s="3">
+        <v>41759</v>
+      </c>
+      <c r="B116" s="2">
+        <v>3.83</v>
+      </c>
+      <c r="C116" s="2">
+        <v>3.9</v>
+      </c>
+      <c r="D116" s="2">
+        <v>3.74</v>
+      </c>
+      <c r="E116" s="2">
+        <v>3.9</v>
+      </c>
+      <c r="F116" s="2">
+        <v>3.1634250000000002</v>
+      </c>
+      <c r="G116" s="2">
+        <v>308402000</v>
+      </c>
+    </row>
+    <row r="117" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A117" s="3">
+        <v>41790</v>
+      </c>
+      <c r="B117" s="2">
+        <v>3.9</v>
+      </c>
+      <c r="C117" s="2">
+        <v>3.91</v>
+      </c>
+      <c r="D117" s="2">
+        <v>3.78</v>
+      </c>
+      <c r="E117" s="2">
+        <v>3.85</v>
+      </c>
+      <c r="F117" s="2">
+        <v>3.122868</v>
+      </c>
+      <c r="G117" s="2">
+        <v>265316000</v>
+      </c>
+    </row>
+    <row r="118" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A118" s="3">
+        <v>41820</v>
+      </c>
+      <c r="B118" s="2">
+        <v>3.86</v>
+      </c>
+      <c r="C118" s="2">
+        <v>4.08</v>
+      </c>
+      <c r="D118" s="2">
+        <v>3.82</v>
+      </c>
+      <c r="E118" s="2">
+        <v>4.07</v>
+      </c>
+      <c r="F118" s="2">
+        <v>3.3013170000000001</v>
+      </c>
+      <c r="G118" s="2">
+        <v>241594000</v>
+      </c>
+    </row>
+    <row r="119" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A119" s="3">
+        <v>41851</v>
+      </c>
+      <c r="B119" s="2">
+        <v>4.04</v>
+      </c>
+      <c r="C119" s="2">
+        <v>4.04</v>
+      </c>
+      <c r="D119" s="2">
+        <v>3.85</v>
+      </c>
+      <c r="E119" s="2">
+        <v>3.89</v>
+      </c>
+      <c r="F119" s="2">
+        <v>3.1553140000000002</v>
+      </c>
+      <c r="G119" s="2">
+        <v>230954000</v>
+      </c>
+    </row>
+    <row r="120" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A120" s="3">
+        <v>41882</v>
+      </c>
+      <c r="B120" s="2">
+        <v>3.89</v>
+      </c>
+      <c r="C120" s="2">
+        <v>3.97</v>
+      </c>
+      <c r="D120" s="2">
+        <v>3.75</v>
+      </c>
+      <c r="E120" s="2">
+        <v>3.8</v>
+      </c>
+      <c r="F120" s="2">
+        <v>3.161143</v>
+      </c>
+      <c r="G120" s="2">
+        <v>269808000</v>
+      </c>
+    </row>
+    <row r="121" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A121" s="3">
+        <v>41912</v>
+      </c>
+      <c r="B121" s="2">
+        <v>3.79</v>
+      </c>
+      <c r="C121" s="2">
+        <v>3.81</v>
+      </c>
+      <c r="D121" s="2">
+        <v>3.63</v>
+      </c>
+      <c r="E121" s="2">
+        <v>3.78</v>
+      </c>
+      <c r="F121" s="2">
+        <v>3.1445050000000001</v>
+      </c>
+      <c r="G121" s="2">
+        <v>366278733</v>
+      </c>
+    </row>
+    <row r="122" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A122" s="3">
+        <v>41943</v>
+      </c>
+      <c r="B122" s="2">
+        <v>3.79</v>
+      </c>
+      <c r="C122" s="2">
+        <v>4</v>
+      </c>
+      <c r="D122" s="2">
+        <v>3.74</v>
+      </c>
+      <c r="E122" s="2">
+        <v>3.9</v>
+      </c>
+      <c r="F122" s="2">
+        <v>3.2443309999999999</v>
+      </c>
+      <c r="G122" s="2">
+        <v>394405400</v>
+      </c>
+    </row>
+    <row r="123" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A123" s="3">
+        <v>41973</v>
+      </c>
+      <c r="B123" s="2">
+        <v>3.9</v>
+      </c>
+      <c r="C123" s="2">
+        <v>4</v>
+      </c>
+      <c r="D123" s="2">
+        <v>3.8</v>
+      </c>
+      <c r="E123" s="2">
+        <v>3.9</v>
+      </c>
+      <c r="F123" s="2">
+        <v>3.2443309999999999</v>
+      </c>
+      <c r="G123" s="2">
+        <v>396553000</v>
+      </c>
+    </row>
+    <row r="124" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A124" s="3">
+        <v>42004</v>
+      </c>
+      <c r="B124" s="2">
+        <v>3.9</v>
+      </c>
+      <c r="C124" s="2">
+        <v>4.12</v>
+      </c>
+      <c r="D124" s="2">
+        <v>3.83</v>
+      </c>
+      <c r="E124" s="2">
+        <v>4.08</v>
+      </c>
+      <c r="F124" s="2">
+        <v>3.4547720000000002</v>
+      </c>
+      <c r="G124" s="2">
+        <v>361580600</v>
+      </c>
+    </row>
+    <row r="125" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A125" s="3">
+        <v>42035</v>
+      </c>
+      <c r="B125" s="2">
+        <v>4.1100000000000003</v>
+      </c>
+      <c r="C125" s="2">
+        <v>4.32</v>
+      </c>
+      <c r="D125" s="2">
+        <v>4.04</v>
+      </c>
+      <c r="E125" s="2">
+        <v>4.22</v>
+      </c>
+      <c r="F125" s="2">
+        <v>3.5733190000000001</v>
+      </c>
+      <c r="G125" s="2">
+        <v>395848100</v>
+      </c>
+    </row>
+    <row r="126" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A126" s="3">
+        <v>42063</v>
+      </c>
+      <c r="B126" s="2">
+        <v>4.22</v>
+      </c>
+      <c r="C126" s="2">
+        <v>4.43</v>
+      </c>
+      <c r="D126" s="2">
+        <v>4.05</v>
+      </c>
+      <c r="E126" s="2">
+        <v>4.38</v>
+      </c>
+      <c r="F126" s="2">
+        <v>3.7088009999999998</v>
+      </c>
+      <c r="G126" s="2">
+        <v>486450400</v>
+      </c>
+    </row>
+    <row r="127" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A127" s="3">
+        <v>42094</v>
+      </c>
+      <c r="B127" s="2">
+        <v>4.3600000000000003</v>
+      </c>
+      <c r="C127" s="2">
+        <v>4.57</v>
+      </c>
+      <c r="D127" s="2">
+        <v>4.3</v>
+      </c>
+      <c r="E127" s="2">
+        <v>4.43</v>
+      </c>
+      <c r="F127" s="2">
+        <v>3.7511380000000001</v>
+      </c>
+      <c r="G127" s="2">
+        <v>434298200</v>
+      </c>
+    </row>
+    <row r="128" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A128" s="3">
+        <v>42124</v>
+      </c>
+      <c r="B128" s="2">
+        <v>4.43</v>
+      </c>
+      <c r="C128" s="2">
+        <v>4.43</v>
+      </c>
+      <c r="D128" s="2">
+        <v>4.08</v>
+      </c>
+      <c r="E128" s="2">
+        <v>4.13</v>
+      </c>
+      <c r="F128" s="2">
+        <v>3.4971109999999999</v>
+      </c>
+      <c r="G128" s="2">
+        <v>371246200</v>
+      </c>
+    </row>
+    <row r="129" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A129" s="3">
+        <v>42155</v>
+      </c>
+      <c r="B129" s="2">
+        <v>4.13</v>
+      </c>
+      <c r="C129" s="2">
+        <v>4.33</v>
+      </c>
+      <c r="D129" s="2">
+        <v>3.91</v>
+      </c>
+      <c r="E129" s="2">
+        <v>4.16</v>
+      </c>
+      <c r="F129" s="2">
+        <v>3.5225140000000001</v>
+      </c>
+      <c r="G129" s="2">
+        <v>726835900</v>
+      </c>
+    </row>
+    <row r="130" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A130" s="3">
+        <v>42185</v>
+      </c>
+      <c r="B130" s="2">
+        <v>4.1900000000000004</v>
+      </c>
+      <c r="C130" s="2">
+        <v>4.4400000000000004</v>
+      </c>
+      <c r="D130" s="2">
+        <v>4.03</v>
+      </c>
+      <c r="E130" s="2">
+        <v>4.09</v>
+      </c>
+      <c r="F130" s="2">
+        <v>3.4632399999999999</v>
+      </c>
+      <c r="G130" s="2">
+        <v>539205000</v>
+      </c>
+    </row>
+    <row r="131" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A131" s="3">
+        <v>42216</v>
+      </c>
+      <c r="B131" s="2">
+        <v>4.12</v>
+      </c>
+      <c r="C131" s="2">
+        <v>4.1500000000000004</v>
+      </c>
+      <c r="D131" s="2">
+        <v>3.74</v>
+      </c>
+      <c r="E131" s="2">
+        <v>4.0599999999999996</v>
+      </c>
+      <c r="F131" s="2">
+        <v>3.5261990000000001</v>
+      </c>
+      <c r="G131" s="2">
+        <v>629898300</v>
+      </c>
+    </row>
+    <row r="132" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A132" s="3">
+        <v>42247</v>
+      </c>
+      <c r="B132" s="2">
+        <v>3.73</v>
+      </c>
+      <c r="C132" s="2">
+        <v>3.83</v>
+      </c>
+      <c r="D132" s="2">
+        <v>3.43</v>
+      </c>
+      <c r="E132" s="2">
+        <v>3.7</v>
+      </c>
+      <c r="F132" s="2">
+        <v>3.2135310000000001</v>
+      </c>
+      <c r="G132" s="2">
+        <v>678625200</v>
+      </c>
+    </row>
+    <row r="133" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A133" s="3">
+        <v>42277</v>
+      </c>
+      <c r="B133" s="2">
+        <v>3.58</v>
+      </c>
+      <c r="C133" s="2">
+        <v>4.0999999999999996</v>
+      </c>
+      <c r="D133" s="2">
+        <v>3.52</v>
+      </c>
+      <c r="E133" s="2">
+        <v>3.98</v>
+      </c>
+      <c r="F133" s="2">
+        <v>3.4567169999999998</v>
+      </c>
+      <c r="G133" s="2">
+        <v>519388900</v>
+      </c>
+    </row>
+    <row r="134" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A134" s="3">
+        <v>42308</v>
+      </c>
+      <c r="B134" s="2">
+        <v>3.9</v>
+      </c>
+      <c r="C134" s="2">
+        <v>4.01</v>
+      </c>
+      <c r="D134" s="2">
+        <v>3.76</v>
+      </c>
+      <c r="E134" s="2">
+        <v>3.8</v>
+      </c>
+      <c r="F134" s="2">
+        <v>3.3003830000000001</v>
+      </c>
+      <c r="G134" s="2">
+        <v>450024700</v>
+      </c>
+    </row>
+    <row r="135" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A135" s="3">
+        <v>42338</v>
+      </c>
+      <c r="B135" s="2">
+        <v>3.82</v>
+      </c>
+      <c r="C135" s="2">
+        <v>3.88</v>
+      </c>
+      <c r="D135" s="2">
+        <v>3.65</v>
+      </c>
+      <c r="E135" s="2">
+        <v>3.68</v>
+      </c>
+      <c r="F135" s="2">
+        <v>3.196161</v>
+      </c>
+      <c r="G135" s="2">
+        <v>460768300</v>
+      </c>
+    </row>
+    <row r="136" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A136" s="3">
+        <v>42369</v>
+      </c>
+      <c r="B136" s="2">
+        <v>3.67</v>
+      </c>
+      <c r="C136" s="2">
+        <v>3.68</v>
+      </c>
+      <c r="D136" s="2">
+        <v>3.38</v>
+      </c>
+      <c r="E136" s="2">
+        <v>3.51</v>
+      </c>
+      <c r="F136" s="2">
+        <v>3.1046610000000001</v>
+      </c>
+      <c r="G136" s="2">
+        <v>529747100</v>
+      </c>
+    </row>
+    <row r="137" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A137" s="3">
+        <v>42400</v>
+      </c>
+      <c r="B137" s="2">
+        <v>3.51</v>
+      </c>
+      <c r="C137" s="2">
+        <v>3.8</v>
+      </c>
+      <c r="D137" s="2">
+        <v>3.45</v>
+      </c>
+      <c r="E137" s="2">
+        <v>3.73</v>
+      </c>
+      <c r="F137" s="2">
+        <v>3.2992539999999999</v>
+      </c>
+      <c r="G137" s="2">
+        <v>521760081</v>
+      </c>
+    </row>
+    <row r="138" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A138" s="3">
+        <v>42429</v>
+      </c>
+      <c r="B138" s="2">
+        <v>3.72</v>
+      </c>
+      <c r="C138" s="2">
+        <v>3.9</v>
+      </c>
+      <c r="D138" s="2">
+        <v>3.68</v>
+      </c>
+      <c r="E138" s="2">
+        <v>3.72</v>
+      </c>
+      <c r="F138" s="2">
+        <v>3.2904089999999999</v>
+      </c>
+      <c r="G138" s="2">
+        <v>609000800</v>
+      </c>
+    </row>
+    <row r="139" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A139" s="3">
+        <v>42460</v>
+      </c>
+      <c r="B139" s="2">
+        <v>3.77</v>
+      </c>
+      <c r="C139" s="2">
+        <v>3.99</v>
+      </c>
+      <c r="D139" s="2">
+        <v>3.65</v>
+      </c>
+      <c r="E139" s="2">
+        <v>3.86</v>
+      </c>
+      <c r="F139" s="2">
+        <v>3.4142420000000002</v>
+      </c>
+      <c r="G139" s="2">
+        <v>488929800</v>
+      </c>
+    </row>
+    <row r="140" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A140" s="3">
+        <v>42490</v>
+      </c>
+      <c r="B140" s="2">
+        <v>3.86</v>
+      </c>
+      <c r="C140" s="2">
+        <v>3.97</v>
+      </c>
+      <c r="D140" s="2">
+        <v>3.74</v>
+      </c>
+      <c r="E140" s="2">
+        <v>3.87</v>
+      </c>
+      <c r="F140" s="2">
+        <v>3.4230870000000002</v>
+      </c>
+      <c r="G140" s="2">
+        <v>672828400</v>
+      </c>
+    </row>
+    <row r="141" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A141" s="3">
+        <v>42521</v>
+      </c>
+      <c r="B141" s="2">
+        <v>3.86</v>
+      </c>
+      <c r="C141" s="2">
+        <v>4.17</v>
+      </c>
+      <c r="D141" s="2">
+        <v>3.76</v>
+      </c>
+      <c r="E141" s="2">
+        <v>4.13</v>
+      </c>
+      <c r="F141" s="2">
+        <v>3.6530619999999998</v>
+      </c>
+      <c r="G141" s="2">
+        <v>463077308</v>
+      </c>
+    </row>
+    <row r="142" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A142" s="3">
+        <v>42551</v>
+      </c>
+      <c r="B142" s="2">
+        <v>4.12</v>
+      </c>
+      <c r="C142" s="2">
+        <v>4.3600000000000003</v>
+      </c>
+      <c r="D142" s="2">
+        <v>4.09</v>
+      </c>
+      <c r="E142" s="2">
+        <v>4.18</v>
+      </c>
+      <c r="F142" s="2">
+        <v>3.6972879999999999</v>
+      </c>
+      <c r="G142" s="2">
+        <v>643558601</v>
+      </c>
+    </row>
+    <row r="143" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A143" s="3">
+        <v>42582</v>
+      </c>
+      <c r="B143" s="2">
+        <v>4.16</v>
+      </c>
+      <c r="C143" s="2">
+        <v>4.33</v>
+      </c>
+      <c r="D143" s="2">
+        <v>3.96</v>
+      </c>
+      <c r="E143" s="2">
+        <v>4.0199999999999996</v>
+      </c>
+      <c r="F143" s="2">
+        <v>3.5557650000000001</v>
+      </c>
+      <c r="G143" s="2">
+        <v>436291500</v>
+      </c>
+    </row>
+    <row r="144" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A144" s="3">
+        <v>42613</v>
+      </c>
+      <c r="B144" s="2">
+        <v>4.03</v>
+      </c>
+      <c r="C144" s="2">
+        <v>4.07</v>
+      </c>
+      <c r="D144" s="2">
+        <v>3.81</v>
+      </c>
+      <c r="E144" s="2">
+        <v>4</v>
+      </c>
+      <c r="F144" s="2">
+        <v>3.6310220000000002</v>
+      </c>
+      <c r="G144" s="2">
+        <v>573203551</v>
+      </c>
+    </row>
+    <row r="145" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A145" s="3">
+        <v>42643</v>
+      </c>
+      <c r="B145" s="2">
+        <v>4</v>
+      </c>
+      <c r="C145" s="2">
+        <v>4.0999999999999996</v>
+      </c>
+      <c r="D145" s="2">
+        <v>3.81</v>
+      </c>
+      <c r="E145" s="2">
+        <v>3.88</v>
+      </c>
+      <c r="F145" s="2">
+        <v>3.5220910000000001</v>
+      </c>
+      <c r="G145" s="2">
+        <v>369369865</v>
+      </c>
+    </row>
+    <row r="146" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A146" s="3">
+        <v>42674</v>
+      </c>
+      <c r="B146" s="2">
+        <v>3.88</v>
+      </c>
+      <c r="C146" s="2">
+        <v>3.93</v>
+      </c>
+      <c r="D146" s="2">
+        <v>3.59</v>
+      </c>
+      <c r="E146" s="2">
+        <v>3.77</v>
+      </c>
+      <c r="F146" s="2">
+        <v>3.4222380000000001</v>
+      </c>
+      <c r="G146" s="2">
+        <v>752512452</v>
+      </c>
+    </row>
+    <row r="147" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A147" s="3">
+        <v>42704</v>
+      </c>
+      <c r="B147" s="2">
+        <v>3.79</v>
+      </c>
+      <c r="C147" s="2">
+        <v>3.86</v>
+      </c>
+      <c r="D147" s="2">
+        <v>3.62</v>
+      </c>
+      <c r="E147" s="2">
+        <v>3.65</v>
+      </c>
+      <c r="F147" s="2">
+        <v>3.313307</v>
+      </c>
+      <c r="G147" s="2">
+        <v>403727113</v>
+      </c>
+    </row>
+    <row r="148" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A148" s="3">
+        <v>42735</v>
+      </c>
+      <c r="B148" s="2">
+        <v>3.65</v>
+      </c>
+      <c r="C148" s="2">
+        <v>3.9</v>
+      </c>
+      <c r="D148" s="2">
+        <v>3.62</v>
+      </c>
+      <c r="E148" s="2">
+        <v>3.87</v>
+      </c>
+      <c r="F148" s="2">
+        <v>3.5782470000000002</v>
+      </c>
+      <c r="G148" s="2">
+        <v>423047517</v>
+      </c>
+    </row>
+    <row r="149" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A149" s="3">
+        <v>42766</v>
+      </c>
+      <c r="B149" s="2">
+        <v>3.88</v>
+      </c>
+      <c r="C149" s="2">
+        <v>4.0199999999999996</v>
+      </c>
+      <c r="D149" s="2">
+        <v>3.78</v>
+      </c>
+      <c r="E149" s="2">
+        <v>3.94</v>
+      </c>
+      <c r="F149" s="2">
+        <v>3.64297</v>
+      </c>
+      <c r="G149" s="2">
+        <v>480586100</v>
+      </c>
+    </row>
+    <row r="150" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A150" s="3">
+        <v>42794</v>
+      </c>
+      <c r="B150" s="2">
+        <v>3.96</v>
+      </c>
+      <c r="C150" s="2">
+        <v>4.01</v>
+      </c>
+      <c r="D150" s="2">
+        <v>3.85</v>
+      </c>
+      <c r="E150" s="2">
+        <v>3.92</v>
+      </c>
+      <c r="F150" s="2">
+        <v>3.6244779999999999</v>
+      </c>
+      <c r="G150" s="2">
+        <v>406783000</v>
+      </c>
+    </row>
+    <row r="151" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A151" s="3">
+        <v>42825</v>
+      </c>
+      <c r="B151" s="2">
+        <v>3.91</v>
+      </c>
+      <c r="C151" s="2">
+        <v>3.95</v>
+      </c>
+      <c r="D151" s="2">
+        <v>3.7</v>
+      </c>
+      <c r="E151" s="2">
+        <v>3.74</v>
+      </c>
+      <c r="F151" s="2">
+        <v>3.4580470000000001</v>
+      </c>
+      <c r="G151" s="2">
+        <v>431304080</v>
+      </c>
+    </row>
+    <row r="152" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A152" s="3">
+        <v>42855</v>
+      </c>
+      <c r="B152" s="2">
+        <v>3.74</v>
+      </c>
+      <c r="C152" s="2">
+        <v>3.78</v>
+      </c>
+      <c r="D152" s="2">
+        <v>3.69</v>
+      </c>
+      <c r="E152" s="2">
+        <v>3.74</v>
+      </c>
+      <c r="F152" s="2">
+        <v>3.4580470000000001</v>
+      </c>
+      <c r="G152" s="2">
+        <v>637747246</v>
+      </c>
+    </row>
+    <row r="153" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A153" s="3">
+        <v>42886</v>
+      </c>
+      <c r="B153" s="2">
+        <v>3.76</v>
+      </c>
+      <c r="C153" s="2">
+        <v>3.9</v>
+      </c>
+      <c r="D153" s="2">
+        <v>3.73</v>
+      </c>
+      <c r="E153" s="2">
+        <v>3.75</v>
+      </c>
+      <c r="F153" s="2">
+        <v>3.4672930000000002</v>
+      </c>
+      <c r="G153" s="2">
+        <v>525810500</v>
+      </c>
+    </row>
+    <row r="154" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A154" s="3">
+        <v>42916</v>
+      </c>
+      <c r="B154" s="2">
+        <v>3.89</v>
+      </c>
+      <c r="C154" s="2">
+        <v>4</v>
+      </c>
+      <c r="D154" s="2">
+        <v>3.83</v>
+      </c>
+      <c r="E154" s="2">
+        <v>3.97</v>
+      </c>
+      <c r="F154" s="2">
+        <v>3.6707079999999999</v>
+      </c>
+      <c r="G154" s="2">
+        <v>561181200</v>
+      </c>
+    </row>
+    <row r="155" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A155" s="3">
+        <v>42947</v>
+      </c>
+      <c r="B155" s="2">
+        <v>3.86</v>
+      </c>
+      <c r="C155" s="2">
+        <v>3.86</v>
+      </c>
+      <c r="D155" s="2">
+        <v>3.7</v>
+      </c>
+      <c r="E155" s="2">
+        <v>3.7</v>
+      </c>
+      <c r="F155" s="2">
+        <v>3.4210630000000002</v>
+      </c>
+      <c r="G155" s="2">
+        <v>411030100</v>
+      </c>
+    </row>
+    <row r="156" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A156" s="3">
+        <v>42978</v>
+      </c>
+      <c r="B156" s="2">
+        <v>3.7</v>
+      </c>
+      <c r="C156" s="2">
+        <v>3.74</v>
+      </c>
+      <c r="D156" s="2">
+        <v>3.65</v>
+      </c>
+      <c r="E156" s="2">
+        <v>3.68</v>
+      </c>
+      <c r="F156" s="2">
+        <v>3.4968170000000001</v>
+      </c>
+      <c r="G156" s="2">
+        <v>314404200</v>
+      </c>
+    </row>
+    <row r="157" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A157" s="3">
+        <v>43008</v>
+      </c>
+      <c r="B157" s="2">
+        <v>3.69</v>
+      </c>
+      <c r="C157" s="2">
+        <v>3.8</v>
+      </c>
+      <c r="D157" s="2">
+        <v>3.67</v>
+      </c>
+      <c r="E157" s="2">
+        <v>3.75</v>
+      </c>
+      <c r="F157" s="2">
+        <v>3.5633330000000001</v>
+      </c>
+      <c r="G157" s="2">
+        <v>411423821</v>
+      </c>
+    </row>
+    <row r="158" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A158" s="3">
+        <v>43039</v>
+      </c>
+      <c r="B158" s="2">
+        <v>3.75</v>
+      </c>
+      <c r="C158" s="2">
+        <v>3.8</v>
+      </c>
+      <c r="D158" s="2">
+        <v>3.65</v>
+      </c>
+      <c r="E158" s="2">
+        <v>3.69</v>
+      </c>
+      <c r="F158" s="2">
+        <v>3.5063200000000001</v>
+      </c>
+      <c r="G158" s="2">
+        <v>597592233</v>
+      </c>
+    </row>
+    <row r="159" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A159" s="3">
+        <v>43069</v>
+      </c>
+      <c r="B159" s="2">
+        <v>3.73</v>
+      </c>
+      <c r="C159" s="2">
+        <v>3.8</v>
+      </c>
+      <c r="D159" s="2">
+        <v>3.56</v>
+      </c>
+      <c r="E159" s="2">
+        <v>3.57</v>
+      </c>
+      <c r="F159" s="2">
+        <v>3.392293</v>
+      </c>
+      <c r="G159" s="2">
+        <v>434788545</v>
+      </c>
+    </row>
+    <row r="160" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A160" s="3">
+        <v>43100</v>
+      </c>
+      <c r="B160" s="2">
+        <v>3.57</v>
+      </c>
+      <c r="C160" s="2">
+        <v>3.65</v>
+      </c>
+      <c r="D160" s="2">
+        <v>3.54</v>
+      </c>
+      <c r="E160" s="2">
+        <v>3.6</v>
+      </c>
+      <c r="F160" s="2">
+        <v>3.4839760000000002</v>
+      </c>
+      <c r="G160" s="2">
+        <v>1035967386</v>
+      </c>
+    </row>
+    <row r="161" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A161" s="3">
+        <v>43131</v>
+      </c>
+      <c r="B161" s="2">
+        <v>3.54</v>
+      </c>
+      <c r="C161" s="2">
+        <v>3.55</v>
+      </c>
+      <c r="D161" s="2">
+        <v>3.32</v>
+      </c>
+      <c r="E161" s="2">
+        <v>3.38</v>
+      </c>
+      <c r="F161" s="2">
+        <v>3.2710659999999998</v>
+      </c>
+      <c r="G161" s="2">
+        <v>627816250</v>
+      </c>
+    </row>
+    <row r="162" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A162" s="3">
+        <v>43159</v>
+      </c>
+      <c r="B162" s="2">
+        <v>3.36</v>
+      </c>
+      <c r="C162" s="2">
+        <v>3.5</v>
+      </c>
+      <c r="D162" s="2">
+        <v>3.3</v>
+      </c>
+      <c r="E162" s="2">
+        <v>3.37</v>
+      </c>
+      <c r="F162" s="2">
+        <v>3.2613880000000002</v>
+      </c>
+      <c r="G162" s="2">
+        <v>572171115</v>
+      </c>
+    </row>
+    <row r="163" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A163" s="3">
+        <v>43190</v>
+      </c>
+      <c r="B163" s="2">
+        <v>3.38</v>
+      </c>
+      <c r="C163" s="2">
+        <v>3.53</v>
+      </c>
+      <c r="D163" s="2">
+        <v>3.33</v>
+      </c>
+      <c r="E163" s="2">
+        <v>3.52</v>
+      </c>
+      <c r="F163" s="2">
+        <v>3.4065539999999999</v>
+      </c>
+      <c r="G163" s="2">
+        <v>439884500</v>
+      </c>
+    </row>
+    <row r="164" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A164" s="3">
+        <v>43220</v>
+      </c>
+      <c r="B164" s="2">
+        <v>3.52</v>
+      </c>
+      <c r="C164" s="2">
+        <v>3.58</v>
+      </c>
+      <c r="D164" s="2">
+        <v>3.28</v>
+      </c>
+      <c r="E164" s="2">
+        <v>3.28</v>
+      </c>
+      <c r="F164" s="2">
+        <v>3.1742889999999999</v>
+      </c>
+      <c r="G164" s="2">
+        <v>456156048</v>
+      </c>
+    </row>
+    <row r="165" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A165" s="3">
+        <v>43251</v>
+      </c>
+      <c r="B165" s="2">
+        <v>3.28</v>
+      </c>
+      <c r="C165" s="2">
+        <v>3.3</v>
+      </c>
+      <c r="D165" s="2">
+        <v>3.08</v>
+      </c>
+      <c r="E165" s="2">
+        <v>3.08</v>
+      </c>
+      <c r="F165" s="2">
+        <v>2.9807350000000001</v>
+      </c>
+      <c r="G165" s="2">
+        <v>477006820</v>
+      </c>
+    </row>
+    <row r="166" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A166" s="3">
+        <v>43281</v>
+      </c>
+      <c r="B166" s="2">
+        <v>3.09</v>
+      </c>
+      <c r="C166" s="2">
+        <v>3.36</v>
+      </c>
+      <c r="D166" s="2">
+        <v>3.02</v>
+      </c>
+      <c r="E166" s="2">
+        <v>3.32</v>
+      </c>
+      <c r="F166" s="2">
+        <v>3.2130000000000001</v>
+      </c>
+      <c r="G166" s="2">
+        <v>374628940</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
+  <dimension ref="A1:I25"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="N13" sqref="N13"/>
+      <selection activeCell="V15" sqref="V15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="10.7109375" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="5" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="6" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="5" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="7.7109375" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A1" s="2" t="s">
         <v>0</v>
       </c>
       <c r="B1" s="2" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="F1" t="s">
+        <v>9</v>
+      </c>
+      <c r="G1" t="s">
+        <v>10</v>
+      </c>
+      <c r="H1" t="s">
+        <v>11</v>
+      </c>
+      <c r="I1" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="2" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A2" s="3">
         <v>38937</v>
       </c>
       <c r="B2" s="2">
         <v>0.1</v>
       </c>
-    </row>
-    <row r="3" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="F2">
+        <v>2006</v>
+      </c>
+      <c r="G2">
+        <f>SUM(B2:B3)</f>
+        <v>0.14600000000000002</v>
+      </c>
+      <c r="H2">
+        <f>'Z74.SI_EOM'!E28</f>
+        <v>3.5</v>
+      </c>
+      <c r="I2" s="4">
+        <f>G2/H2</f>
+        <v>4.1714285714285718E-2</v>
+      </c>
+    </row>
+    <row r="3" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A3" s="3">
         <v>39070</v>
       </c>
       <c r="B3" s="2">
         <v>4.5999999999999999E-2</v>
       </c>
-    </row>
-    <row r="4" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="F3">
+        <v>2007</v>
+      </c>
+      <c r="G3">
+        <f>SUM(B4)</f>
+        <v>5.6000000000000001E-2</v>
+      </c>
+      <c r="H3">
+        <f>'Z74.SI_EOM'!E40</f>
+        <v>3.65</v>
+      </c>
+      <c r="I3" s="4">
+        <f t="shared" ref="I3:I14" si="0">G3/H3</f>
+        <v>1.5342465753424659E-2</v>
+      </c>
+    </row>
+    <row r="4" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A4" s="3">
         <v>39433</v>
       </c>
       <c r="B4" s="2">
         <v>5.6000000000000001E-2</v>
       </c>
-    </row>
-    <row r="5" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="F4">
+        <v>2008</v>
+      </c>
+      <c r="G4">
+        <f>SUM(B5:B6)</f>
+        <v>0.125</v>
+      </c>
+      <c r="H4">
+        <f>'Z74.SI_EOM'!E52</f>
+        <v>2.66</v>
+      </c>
+      <c r="I4" s="4">
+        <f t="shared" si="0"/>
+        <v>4.6992481203007516E-2</v>
+      </c>
+    </row>
+    <row r="5" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A5" s="3">
         <v>39666</v>
       </c>
       <c r="B5" s="2">
         <v>6.9000000000000006E-2</v>
       </c>
-    </row>
-    <row r="6" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="F5" s="2">
+        <v>2009</v>
+      </c>
+      <c r="G5">
+        <f>SUM(B7:B8)</f>
+        <v>0.13100000000000001</v>
+      </c>
+      <c r="H5">
+        <f>'Z74.SI_EOM'!E64</f>
+        <v>3.01</v>
+      </c>
+      <c r="I5" s="4">
+        <f t="shared" si="0"/>
+        <v>4.3521594684385385E-2</v>
+      </c>
+    </row>
+    <row r="6" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A6" s="3">
         <v>39801</v>
       </c>
       <c r="B6" s="2">
         <v>5.6000000000000001E-2</v>
       </c>
-    </row>
-    <row r="7" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="F6" s="2">
+        <v>2010</v>
+      </c>
+      <c r="G6">
+        <f>SUM(B9:B10)</f>
+        <v>0.14800000000000002</v>
+      </c>
+      <c r="H6">
+        <f>'Z74.SI_EOM'!E76</f>
+        <v>3.1</v>
+      </c>
+      <c r="I6" s="4">
+        <f t="shared" si="0"/>
+        <v>4.774193548387097E-2</v>
+      </c>
+    </row>
+    <row r="7" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A7" s="3">
         <v>40030</v>
       </c>
       <c r="B7" s="2">
         <v>6.9000000000000006E-2</v>
       </c>
-    </row>
-    <row r="8" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="F7" s="2">
+        <v>2011</v>
+      </c>
+      <c r="G7">
+        <f>SUM(B11:B12)</f>
+        <v>0.158</v>
+      </c>
+      <c r="H7">
+        <f>'Z74.SI_EOM'!E88</f>
+        <v>3.1</v>
+      </c>
+      <c r="I7" s="4">
+        <f t="shared" si="0"/>
+        <v>5.0967741935483868E-2</v>
+      </c>
+    </row>
+    <row r="8" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A8" s="3">
         <v>40165</v>
       </c>
       <c r="B8" s="2">
         <v>6.2E-2</v>
       </c>
-    </row>
-    <row r="9" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="F8" s="2">
+        <v>2012</v>
+      </c>
+      <c r="G8">
+        <f>SUM(B13:B14)</f>
+        <v>0.158</v>
+      </c>
+      <c r="H8">
+        <f>'Z74.SI_EOM'!E100</f>
+        <v>3.5</v>
+      </c>
+      <c r="I8" s="4">
+        <f t="shared" si="0"/>
+        <v>4.5142857142857144E-2</v>
+      </c>
+    </row>
+    <row r="9" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A9" s="3">
         <v>40396</v>
       </c>
       <c r="B9" s="2">
         <v>0.08</v>
       </c>
-    </row>
-    <row r="10" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="F9" s="2">
+        <v>2013</v>
+      </c>
+      <c r="G9">
+        <f>SUM(B16)</f>
+        <v>6.8000000000000005E-2</v>
+      </c>
+      <c r="H9">
+        <f>'Z74.SI_EOM'!E112</f>
+        <v>3.53</v>
+      </c>
+      <c r="I9" s="4">
+        <f t="shared" si="0"/>
+        <v>1.9263456090651561E-2</v>
+      </c>
+    </row>
+    <row r="10" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A10" s="3">
         <v>40533</v>
       </c>
       <c r="B10" s="2">
         <v>6.8000000000000005E-2</v>
       </c>
-    </row>
-    <row r="11" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="F10" s="2">
+        <v>2014</v>
+      </c>
+      <c r="G10">
+        <f>SUM(B17:B18)</f>
+        <v>0.16800000000000001</v>
+      </c>
+      <c r="H10">
+        <f>'Z74.SI_EOM'!E124</f>
+        <v>4.08</v>
+      </c>
+      <c r="I10" s="4">
+        <f t="shared" si="0"/>
+        <v>4.1176470588235294E-2</v>
+      </c>
+    </row>
+    <row r="11" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A11" s="3">
         <v>40760</v>
       </c>
       <c r="B11" s="2">
         <v>0.09</v>
       </c>
-    </row>
-    <row r="12" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="F11" s="2">
+        <v>2015</v>
+      </c>
+      <c r="G11">
+        <f>SUM(B19:B20)</f>
+        <v>0.17499999999999999</v>
+      </c>
+      <c r="H11">
+        <f>'Z74.SI_EOM'!E136</f>
+        <v>3.51</v>
+      </c>
+      <c r="I11" s="4">
+        <f t="shared" si="0"/>
+        <v>4.9857549857549859E-2</v>
+      </c>
+    </row>
+    <row r="12" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A12" s="3">
         <v>40897</v>
       </c>
       <c r="B12" s="2">
         <v>6.8000000000000005E-2</v>
       </c>
-    </row>
-    <row r="13" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="F12" s="2">
+        <v>2016</v>
+      </c>
+      <c r="G12">
+        <f>SUM(B21:B22)</f>
+        <v>0.17499999999999999</v>
+      </c>
+      <c r="H12">
+        <f>'Z74.SI_EOM'!E148</f>
+        <v>3.87</v>
+      </c>
+      <c r="I12" s="4">
+        <f t="shared" si="0"/>
+        <v>4.5219638242894052E-2</v>
+      </c>
+    </row>
+    <row r="13" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A13" s="3">
         <v>41127</v>
       </c>
       <c r="B13" s="2">
         <v>0.09</v>
       </c>
-    </row>
-    <row r="14" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="F13" s="2">
+        <v>2017</v>
+      </c>
+      <c r="G13">
+        <f>SUM(B23:B24)</f>
+        <v>0.17499999999999999</v>
+      </c>
+      <c r="H13">
+        <f>'Z74.SI_EOM'!E160</f>
+        <v>3.6</v>
+      </c>
+      <c r="I13" s="4">
+        <f t="shared" si="0"/>
+        <v>4.8611111111111105E-2</v>
+      </c>
+    </row>
+    <row r="14" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A14" s="3">
         <v>41267</v>
       </c>
       <c r="B14" s="2">
         <v>6.8000000000000005E-2</v>
       </c>
-    </row>
-    <row r="15" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="F14" s="2">
+        <v>2018</v>
+      </c>
+      <c r="G14">
+        <f>SUM(B25)</f>
+        <v>0.107</v>
+      </c>
+      <c r="I14" s="4" t="e">
+        <f t="shared" si="0"/>
+        <v>#DIV/0!</v>
+      </c>
+    </row>
+    <row r="15" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A15" s="3">
         <v>41491</v>
       </c>
@@ -80187,7 +85672,7 @@
         <v>0.1</v>
       </c>
     </row>
-    <row r="16" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A16" s="3">
         <v>41627</v>
       </c>
@@ -80259,7 +85744,16 @@
         <v>6.8000000000000005E-2</v>
       </c>
     </row>
+    <row r="25" spans="1:2" s="2" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A25" s="3">
+        <v>43307</v>
+      </c>
+      <c r="B25" s="2">
+        <v>0.107</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <drawing r:id="rId1"/>
 </worksheet>
 </file>
--- a/Z74.SI.xlsx
+++ b/Z74.SI.xlsx
@@ -16,7 +16,17 @@
     <sheet name="Z74.SI_EOM" sheetId="3" r:id="rId2"/>
     <sheet name="Z74.SI_DIV" sheetId="2" r:id="rId3"/>
   </sheets>
-  <calcPr calcId="171027"/>
+  <definedNames>
+    <definedName name="_xlchart.v1.0" hidden="1">'Z74.SI_EOD'!$E$1010:$E$3452</definedName>
+    <definedName name="_xlchart.v1.1" hidden="1">'Z74.SI_EOD'!$E$1:$E$1009</definedName>
+    <definedName name="_xlchart.v1.2" hidden="1">'Z74.SI_EOD'!$E$1010:$E$3452</definedName>
+    <definedName name="_xlchart.v1.3" hidden="1">'Z74.SI_EOD'!$E$1:$E$1009</definedName>
+    <definedName name="_xlchart.v1.4" hidden="1">'Z74.SI_EOD'!$E$1010:$E$3452</definedName>
+    <definedName name="_xlchart.v1.5" hidden="1">'Z74.SI_EOD'!$E$1:$E$1009</definedName>
+    <definedName name="_xlchart.v1.6" hidden="1">'Z74.SI_EOD'!$E$1010:$E$3452</definedName>
+    <definedName name="_xlchart.v1.7" hidden="1">'Z74.SI_EOD'!$E$1:$E$1009</definedName>
+  </definedNames>
+  <calcPr calcId="171027" iterateDelta="1E-4" concurrentCalc="0"/>
 </workbook>
 </file>
 
@@ -623,37 +633,7 @@
     </mc:Fallback>
   </mc:AlternateContent>
   <c:chart>
-    <c:title>
-      <c:overlay val="0"/>
-      <c:spPr>
-        <a:noFill/>
-        <a:ln>
-          <a:noFill/>
-        </a:ln>
-        <a:effectLst/>
-      </c:spPr>
-      <c:txPr>
-        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
-        <a:lstStyle/>
-        <a:p>
-          <a:pPr>
-            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
-              <a:solidFill>
-                <a:schemeClr val="tx1">
-                  <a:lumMod val="65000"/>
-                  <a:lumOff val="35000"/>
-                </a:schemeClr>
-              </a:solidFill>
-              <a:latin typeface="+mn-lt"/>
-              <a:ea typeface="+mn-ea"/>
-              <a:cs typeface="+mn-cs"/>
-            </a:defRPr>
-          </a:pPr>
-          <a:endParaRPr lang="en-US"/>
-        </a:p>
-      </c:txPr>
-    </c:title>
-    <c:autoTitleDeleted val="0"/>
+    <c:autoTitleDeleted val="1"/>
     <c:plotArea>
       <c:layout/>
       <c:barChart>
@@ -1104,6 +1084,7 @@
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
         <c:crossAx val="589900328"/>
+        <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
         <c:lblOffset val="100"/>
@@ -1192,7 +1173,1160 @@
 </c:chartSpace>
 </file>
 
+<file path=xl/charts/chart2.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
+  <c:lang val="en-US"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:autoTitleDeleted val="1"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:barChart>
+        <c:barDir val="col"/>
+        <c:grouping val="clustered"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>'Z74.SI_DIV'!$G$1</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Div</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:solidFill>
+              <a:schemeClr val="accent1"/>
+            </a:solidFill>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:invertIfNegative val="0"/>
+          <c:cat>
+            <c:numRef>
+              <c:f>'Z74.SI_DIV'!$F$2:$F$13</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="12"/>
+                <c:pt idx="0">
+                  <c:v>2006</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>2007</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>2008</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>2009</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>2010</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>2011</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>2012</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>2013</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>2014</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>2015</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>2016</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>2017</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>'Z74.SI_DIV'!$G$2:$G$13</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="12"/>
+                <c:pt idx="0">
+                  <c:v>0.14600000000000002</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>5.6000000000000001E-2</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0.125</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>0.13100000000000001</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>0.14800000000000002</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>0.158</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>0.158</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>6.8000000000000005E-2</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>0.16800000000000001</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>0.17499999999999999</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>0.17499999999999999</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>0.17499999999999999</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000000-A93D-4908-BB86-0F065FFD4777}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:gapWidth val="219"/>
+        <c:overlap val="-27"/>
+        <c:axId val="516896096"/>
+        <c:axId val="516897408"/>
+      </c:barChart>
+      <c:lineChart>
+        <c:grouping val="standard"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="1"/>
+          <c:order val="1"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>'Z74.SI_DIV'!$H$1</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>P</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="28575" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent2"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:val>
+            <c:numRef>
+              <c:f>'Z74.SI_DIV'!$H$2:$H$13</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="12"/>
+                <c:pt idx="0">
+                  <c:v>3.5</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>3.65</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>2.66</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>3.01</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>3.1</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>3.1</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>3.5</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>3.53</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>4.08</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>3.51</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>3.87</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>3.6</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000001-A93D-4908-BB86-0F065FFD4777}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:marker val="1"/>
+        <c:smooth val="0"/>
+        <c:axId val="516899048"/>
+        <c:axId val="516902984"/>
+      </c:lineChart>
+      <c:catAx>
+        <c:axId val="516896096"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="15000"/>
+                <a:lumOff val="85000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="516897408"/>
+        <c:crosses val="autoZero"/>
+        <c:auto val="1"/>
+        <c:lblAlgn val="ctr"/>
+        <c:lblOffset val="100"/>
+        <c:noMultiLvlLbl val="0"/>
+      </c:catAx>
+      <c:valAx>
+        <c:axId val="516897408"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln>
+            <a:noFill/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="516896096"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="between"/>
+      </c:valAx>
+      <c:valAx>
+        <c:axId val="516902984"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="r"/>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="out"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln>
+            <a:noFill/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="516899048"/>
+        <c:crosses val="max"/>
+        <c:crossBetween val="between"/>
+      </c:valAx>
+      <c:catAx>
+        <c:axId val="516899048"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="1"/>
+        <c:axPos val="b"/>
+        <c:majorTickMark val="out"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:crossAx val="516902984"/>
+        <c:auto val="1"/>
+        <c:lblAlgn val="ctr"/>
+        <c:lblOffset val="100"/>
+        <c:noMultiLvlLbl val="0"/>
+      </c:catAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:legend>
+      <c:legendPos val="b"/>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="en-US"/>
+        </a:p>
+      </c:txPr>
+    </c:legend>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:extLst>
+      <c:ext xmlns:c16r3="http://schemas.microsoft.com/office/drawing/2017/03/chart" uri="{56B9EC1D-385E-4148-901F-78D8002777C0}">
+        <c16r3:dataDisplayOptions16>
+          <c16r3:dispNaAsBlank val="1"/>
+        </c16r3:dataDisplayOptions16>
+      </c:ext>
+    </c:extLst>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="en-US"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart3.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
+  <c:lang val="en-US"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:autoTitleDeleted val="1"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:lineChart>
+        <c:grouping val="standard"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>'Z74.SI_DIV'!$H$1</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>P</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="28575" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:cat>
+            <c:numRef>
+              <c:f>'Z74.SI_DIV'!$F$2:$F$13</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="12"/>
+                <c:pt idx="0">
+                  <c:v>2006</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>2007</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>2008</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>2009</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>2010</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>2011</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>2012</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>2013</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>2014</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>2015</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>2016</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>2017</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>'Z74.SI_DIV'!$H$2:$H$13</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="12"/>
+                <c:pt idx="0">
+                  <c:v>3.5</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>3.65</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>2.66</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>3.01</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>3.1</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>3.1</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>3.5</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>3.53</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>4.08</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>3.51</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>3.87</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>3.6</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000000-9429-4BF5-BB50-CE6B3F29A2BC}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:marker val="1"/>
+        <c:smooth val="0"/>
+        <c:axId val="516914136"/>
+        <c:axId val="516912168"/>
+      </c:lineChart>
+      <c:lineChart>
+        <c:grouping val="standard"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="1"/>
+          <c:order val="1"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>'Z74.SI_DIV'!$I$1</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Y%</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="28575" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent2"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:val>
+            <c:numRef>
+              <c:f>'Z74.SI_DIV'!$I$2:$I$13</c:f>
+              <c:numCache>
+                <c:formatCode>0.00%</c:formatCode>
+                <c:ptCount val="12"/>
+                <c:pt idx="0">
+                  <c:v>4.1714285714285718E-2</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>1.5342465753424659E-2</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>4.6992481203007516E-2</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>4.3521594684385385E-2</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>4.774193548387097E-2</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>5.0967741935483868E-2</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>4.5142857142857144E-2</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>1.9263456090651561E-2</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>4.1176470588235294E-2</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>4.9857549857549859E-2</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>4.5219638242894052E-2</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>4.8611111111111105E-2</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000001-9429-4BF5-BB50-CE6B3F29A2BC}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:marker val="1"/>
+        <c:smooth val="0"/>
+        <c:axId val="516366992"/>
+        <c:axId val="516376176"/>
+      </c:lineChart>
+      <c:catAx>
+        <c:axId val="516914136"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="15000"/>
+                <a:lumOff val="85000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="516912168"/>
+        <c:crosses val="autoZero"/>
+        <c:auto val="1"/>
+        <c:lblAlgn val="ctr"/>
+        <c:lblOffset val="100"/>
+        <c:noMultiLvlLbl val="0"/>
+      </c:catAx>
+      <c:valAx>
+        <c:axId val="516912168"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln>
+            <a:noFill/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="516914136"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="between"/>
+      </c:valAx>
+      <c:valAx>
+        <c:axId val="516376176"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="r"/>
+        <c:numFmt formatCode="0.00%" sourceLinked="1"/>
+        <c:majorTickMark val="out"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln>
+            <a:noFill/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="516366992"/>
+        <c:crosses val="max"/>
+        <c:crossBetween val="between"/>
+      </c:valAx>
+      <c:catAx>
+        <c:axId val="516366992"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="1"/>
+        <c:axPos val="b"/>
+        <c:majorTickMark val="out"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:crossAx val="516376176"/>
+        <c:auto val="1"/>
+        <c:lblAlgn val="ctr"/>
+        <c:lblOffset val="100"/>
+        <c:noMultiLvlLbl val="0"/>
+      </c:catAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:legend>
+      <c:legendPos val="b"/>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="en-US"/>
+        </a:p>
+      </c:txPr>
+    </c:legend>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:extLst>
+      <c:ext xmlns:c16r3="http://schemas.microsoft.com/office/drawing/2017/03/chart" uri="{56B9EC1D-385E-4148-901F-78D8002777C0}">
+        <c16r3:dataDisplayOptions16>
+          <c16r3:dispNaAsBlank val="1"/>
+        </c16r3:dataDisplayOptions16>
+      </c:ext>
+    </c:extLst>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="en-US"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chartEx1.xml><?xml version="1.0" encoding="utf-8"?>
+<cx:chartSpace xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:cx="http://schemas.microsoft.com/office/drawing/2014/chartex">
+  <cx:chartData>
+    <cx:data id="0">
+      <cx:numDim type="val">
+        <cx:f>_xlchart.v1.6</cx:f>
+      </cx:numDim>
+    </cx:data>
+  </cx:chartData>
+  <cx:chart>
+    <cx:plotArea>
+      <cx:plotAreaRegion>
+        <cx:series layoutId="clusteredColumn" uniqueId="{4FD275E6-4EB3-4E42-A134-BA816BBE13CF}">
+          <cx:tx>
+            <cx:txData>
+              <cx:f>_xlchart.v1.7</cx:f>
+              <cx:v>Close 2.36 2.3 2.32 2.34 null 2.39 null 2.37 2.39 2.34 2.33 2.32 2.38 2.4 2.35 2.36 2.36 2.37 2.39 2.39 2.39 2.33 2.34 2.36 2.34 2.36 2.39 2.42 2.42 2.38 2.4 2.4 2.42 2.38 2.38 2.39 2.37 2.37 2.36 2.37 2.38 2.37 2.37 2.38 2.4 2.37 2.36 2.41 2.4 2.41 2.46 2.46 2.39 2.42 2.43 2.44 2.41 2.47 2.49 2.53 2.55 2.59 2.57 2.56 2.54 2.57 2.59 2.62 2.61 2.61 2.57 2.56 2.61 2.63 2.66 2.65 2.7 2.68 2.62 2.62 2.64 2.65 2.63 2.66 2.67 2.68 2.66 2.63 2.67 2.64 2.69 2.65 2.7 2.71 2.68 2.6 2.61 2.6 2.57 2.56 2.58 2.55 2.58 2.59 2.61 2.66 2.68 2.68 2.6 2.58 2.57 2.53 2.49 2.52 2.55 2.55 2.55 2.57 2.6 2.62 2.63 2.56 2.59 2.58 2.6 2.61 2.56 2.56 2.55 2.57 2.59 2.56 2.59 2.56 2.59 2.64 2.68 2.62 2.61 2.59 2.6 2.6 2.61 2.64 2.63 2.62 2.61 2.61 2.62 2.61 2.62 2.58 2.63 2.64 2.62 2.66 2.65 2.7 2.69 2.7 2.69 2.71 2.73 2.77 2.74 2.74 2.75 2.72 2.67 2.72 2.75 2.72 2.69 2.72 2.69 2.68 2.66 2.73 2.75 2.75 2.77 2.79 2.83 2.79 2.77 2.8 2.83 2.82 2.78 2.67 2.71 2.66 2.62 2.62 2.61 2.66 2.62 2.62 2.65 2.7 2.64 2.63 2.64 2.62 2.63 2.62 2.58 2.6 2.61 2.58 2.5 2.53 2.58 2.59 2.61 2.6 2.59 2.57 2.56 2.46 2.48 2.43 2.44 2.45 2.48 2.45 2.44 2.42 2.45 2.43 2.45 2.45 2.44 2.46 2.49 2.5 2.48 2.46 2.46 2.46 2.44 2.37 2.4 2.39 2.36 2.35 2.38 2.36 2.33 2.33 2.37 2.38 2.4 2.45 2.4 2.35 2.42 2.39 2.37 2.39 2.4 2.43 2.39 2.39 2.4 2.41 2.4 2.47 2.46 2.51 2.57 2.57 2.59 2.53 2.53 2.54 2.57 2.56 2.56 2.54 2.57 2.59 2.64 2.64 2.64 2.64 2.65 2.65 2.63 2.61 2.61 null 2.63 2.65 2.67 2.65 2.6 null 2.57 2.54 2.58 2.57 2.54 2.49 2.47 2.48 2.48 2.47 2.47 2.53 2.54 null null 2.54 2.53 2.52 2.56 2.57 2.58 2.6 2.59 2.63 2.67 2.67 2.67 2.66 2.65 2.67 2.63 2.6 2.6 2.62 2.61 2.61 2.61 2.65 2.68 2.68 2.67 2.69 2.71 2.7 2.71 2.72 2.72 2.76 2.8 2.62 2.63 2.64 2.65 2.64 2.64 2.63 2.66 2.65 2.67 2.65 2.65 2.65 2.65 2.66 2.68 2.68 2.69 null 2.67 2.67 2.71 2.71 2.73 2.72 2.73 2.75 2.76 2.74 null 2.73 2.73 2.75 2.77 2.75 2.69 2.7 2.68 null 2.59 2.61 2.68 2.64 2.62 2.58 2.56 2.55 2.51 2.56 2.55 2.54 2.53 2.5 2.51 2.46 2.46 2.42 2.36 2.42 2.43 2.4 2.37 2.41 2.54 2.52 2.5 2.51 2.55 2.51 2.5 2.49 2.5 2.49 2.54 2.54 2.55 2.54 2.54 2.54 2.51 2.49 2.5 2.48 2.46 2.42 2.43 2.43 2.48 2.47 2.46 2.52 2.51 2.52 2.56 2.59 2.59 2.59 2.57 2.56 2.56 2.46 null 2.43 2.43 2.41 2.43 2.45 2.49 2.53 2.48 2.46 2.44 2.43 2.46 2.47 2.51 2.47 2.49 2.47 2.5 2.49 2.5 2.48 2.49 2.47 2.45 2.48 2.46 2.44 2.44 2.42 2.38 2.42 2.39 2.4 2.4 2.44 2.44 2.44 2.43 2.41 2.41 2.4 2.47 2.46 2.47 2.47 2.46 2.46 2.48 2.46 2.5 2.53 2.54 2.56 null 2.58 2.62 2.64 2.63 2.65 2.7 2.69 2.67 2.69 2.74 2.85 2.9 2.86 2.83 2.84 2.9 2.9 2.95 2.91 2.91 2.97 2.97 2.95 2.96 2.93 2.9 2.88 2.91 2.9 2.97 2.91 2.98 3.08 3.22 3.26 3.1 3.12 3.24 3.4 3.24 3.2 3.2 3.22 3.22 3.2 3.24 3.28 3.38 3.48 3.34 3.2 3.2 3.24 3.32 3.38 3.44 3.48 3.44 3.38 3.4 3.42 3.38 3.5 3.4 3.48 3.5 3.46 3.5 3.48 3.7 3.6 3.52 3.5 3.46 3.42 3.26 3.26 3.34 3.48 3.44 3.44 3.4 3.4 3.36 3.3 3.18 3.08 3.08 3.14 3.24 3.24 3.3 3.28 3.3 3.22 3.12 3.22 3.12 3.18 3.16 3.18 3.26 3.2 3.18 3.2 3.24 3.22 3.28 3.28 3.28 3.36 3.36 3.46 3.48 3.42 3.48 3.46 3.54 3.58 3.5 3.32 3.42 3.42 3.4 3.34 3.38 3.4 3.32 3.4 3.44 3.42 3.4 3.42 3.34 3.34 3.28 3.4 3.4 3.46 3.48 3.48 3.48 3.5 3.52 3.52 3.48 3.5 3.56 3.54 3.56 3.58 3.48 3.52 3.5 3.44 3.52 3.46 3.38 3.38 3.36 3.4 3.4 3.42 3.44 3.44 3.42 3.44 3.44 3.5 3.4 3.4 3.42 3.42 3.42 3.4 3.46 3.46 3.46 3.46 3.48 3.52 3.48 3.42 3.46 3.5 3.5 3.52 3.52 3.48 3.44 3.44 3.5 3.4 3.42 3.44 3.42 3.26 3.4 3.46 3.5 3.5 3.46 3.36 3.4 3.48 3.36 3.5 3.56 3.64 3.58 3.52 3.62 3.54 3.64 3.58 3.6 3.66 3.6 3.62 3.6 3.66 3.66 3.68 3.74 3.74 3.82 3.98 3.78 3.72 3.8 3.82 3.84 4.02 4.02 4 3.94 3.86 3.98 4.02 3.98 4.14 4.04 4.14 4.12 4.1 4.08 4.08 4.02 3.98 3.82 3.96 3.9 4 4 4.08 4.08 4.08 4 3.9 3.86 3.92 3.96 3.86 3.84 3.76 3.82 3.76 3.74 3.68 3.78 3.72 3.68 3.72 3.78 3.66 3.72 3.82 3.88 3.76 3.78 3.9 3.78 3.84 3.88 3.94 3.98 3.92 3.96 3.78 3.82 3.72 3.68 3.8 3.86 3.9 3.92 4 3.99 3.86 3.9 3.76 3.8 3.78 3.86 3.94 4 3.97 3.85 3.91 3.86 3.58 3.65 3.76 3.69 3.76 3.64 3.68 3.64 3.65 3.83 3.86 3.9 3.71 3.72 3.93 3.92 3.96 3.98 3.97 3.92 3.78 3.82 3.82 3.89 3.9 3.92 3.86 3.85 3.7 3.72 3.68 3.68 3.65 3.73 3.81 3.83 3.77 3.87 3.9 3.97 3.93 3.89 3.93 4.01 4 3.95 3.91 3.91 3.96 3.95 4.02 3.95 3.98 3.92 3.92 3.88 3.98 3.87 3.92 3.89 3.89 3.85 3.86 3.88 3.84 3.79 3.82 3.87 3.89 3.86 3.89 3.87 3.86 3.82 3.72 3.71 3.71 3.75 3.73 3.69 3.71 3.68 3.68 3.66 3.61 3.61 3.64 3.67 3.71 3.81 3.73 3.66 3.62 3.69 3.68 3.63 3.61 3.61 3.63 3.59 3.72 3.73 3.74 3.69 3.77 3.71 3.67 3.75 3.7 3.67 3.62 3.57 3.52 3.49 3.47 3.52 3.51 3.52 3.48 3.51 3.53 3.46 3.48 3.53 3.49 3.56 3.51 3.6 3.58 3.53 3.52 3.53 3.57 3.58 3.58 3.57 3.55 3.56 3.5 3.52 3.58 3.52 3.48 3.47 3.49 3.44 3.45 3.46 3.41 3.44 3.5 3.47 3.48 3.45 3.53 3.54 3.65 3.55 3.45 3.39 3.48 3.47 3.36 3.28 3.36 3.26 3.3 3.29 3.32 3.57 3.49 3.4 3.34 3.22 3.21 3.14 3.25 3.27 3.18 3.04 3.12 2.9 2.94 2.77 2.92 2.9 2.71 2.56 2.5 2.61 2.6 2.47 2.28 2.06 null</cx:v>
+            </cx:txData>
+          </cx:tx>
+          <cx:dataId val="0"/>
+          <cx:layoutPr>
+            <cx:binning intervalClosed="r"/>
+          </cx:layoutPr>
+        </cx:series>
+      </cx:plotAreaRegion>
+      <cx:axis id="0">
+        <cx:catScaling gapWidth="0"/>
+        <cx:tickLabels/>
+      </cx:axis>
+      <cx:axis id="1">
+        <cx:valScaling/>
+        <cx:majorGridlines/>
+        <cx:tickLabels/>
+      </cx:axis>
+    </cx:plotArea>
+  </cx:chart>
+</cx:chartSpace>
+</file>
+
 <file path=xl/charts/colors1.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
+<file path=xl/charts/colors2.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
+<file path=xl/charts/colors3.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
+<file path=xl/charts/colors4.xml><?xml version="1.0" encoding="utf-8"?>
 <cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
   <a:schemeClr val="accent1"/>
   <a:schemeClr val="accent2"/>
@@ -1735,6 +2869,1533 @@
 </cs:chartStyle>
 </file>
 
+<file path=xl/charts/style2.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="201">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="28575" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="65000"/>
+          <a:lumOff val="35000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="75000"/>
+            <a:lumOff val="25000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="sysDot"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
+<file path=xl/charts/style3.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="227">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="phClr"/>
+      </a:solidFill>
+    </cs:spPr>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="phClr"/>
+      </a:solidFill>
+    </cs:spPr>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="28575" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="phClr"/>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="65000"/>
+          <a:lumOff val="35000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="75000"/>
+            <a:lumOff val="25000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="sysDot"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
+<file path=xl/charts/style4.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="366">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="1000"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="phClr"/>
+      </a:solidFill>
+    </cs:spPr>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="phClr"/>
+      </a:solidFill>
+    </cs:spPr>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="28575" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="phClr"/>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="lt1"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="28575" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="65000"/>
+          <a:lumOff val="35000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="75000"/>
+            <a:lumOff val="25000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat">
+        <a:solidFill>
+          <a:srgbClr val="D9D9D9"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1400"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="sysDash"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
 <file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor>
@@ -1771,6 +4432,156 @@
         </a:graphicData>
       </a:graphic>
     </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>10</xdr:col>
+      <xdr:colOff>38100</xdr:colOff>
+      <xdr:row>16</xdr:row>
+      <xdr:rowOff>33337</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>17</xdr:col>
+      <xdr:colOff>342900</xdr:colOff>
+      <xdr:row>30</xdr:row>
+      <xdr:rowOff>109537</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="2" name="Chart 1">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{310F013B-4274-4058-8558-DC9CCB29A8A7}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvGraphicFramePr/>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId2"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>18</xdr:col>
+      <xdr:colOff>76200</xdr:colOff>
+      <xdr:row>1</xdr:row>
+      <xdr:rowOff>42862</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>25</xdr:col>
+      <xdr:colOff>381000</xdr:colOff>
+      <xdr:row>15</xdr:row>
+      <xdr:rowOff>119062</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="3" name="Chart 2">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{DCD47E94-6BF8-464D-87C5-A831A1990AB2}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvGraphicFramePr/>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId3"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>10</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>33</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>25</xdr:col>
+      <xdr:colOff>452438</xdr:colOff>
+      <xdr:row>57</xdr:row>
+      <xdr:rowOff>123825</xdr:rowOff>
+    </xdr:to>
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+      <mc:Choice xmlns:cx1="http://schemas.microsoft.com/office/drawing/2015/9/8/chartex" Requires="cx1">
+        <xdr:graphicFrame macro="">
+          <xdr:nvGraphicFramePr>
+            <xdr:cNvPr id="6" name="Chart 5">
+              <a:extLst>
+                <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{11223FF1-ACBE-4CE3-8E6F-F96EE4BE74A5}"/>
+                </a:ext>
+              </a:extLst>
+            </xdr:cNvPr>
+            <xdr:cNvGraphicFramePr/>
+          </xdr:nvGraphicFramePr>
+          <xdr:xfrm>
+            <a:off x="0" y="0"/>
+            <a:ext cx="0" cy="0"/>
+          </xdr:xfrm>
+          <a:graphic>
+            <a:graphicData uri="http://schemas.microsoft.com/office/drawing/2014/chartex">
+              <cx:chart xmlns:cx="http://schemas.microsoft.com/office/drawing/2014/chartex" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId4"/>
+            </a:graphicData>
+          </a:graphic>
+        </xdr:graphicFrame>
+      </mc:Choice>
+      <mc:Fallback>
+        <xdr:sp macro="" textlink="">
+          <xdr:nvSpPr>
+            <xdr:cNvPr id="0" name=""/>
+            <xdr:cNvSpPr>
+              <a:spLocks noTextEdit="1"/>
+            </xdr:cNvSpPr>
+          </xdr:nvSpPr>
+          <xdr:spPr>
+            <a:xfrm>
+              <a:off x="5343525" y="6286500"/>
+              <a:ext cx="9596438" cy="4695825"/>
+            </a:xfrm>
+            <a:prstGeom prst="rect">
+              <a:avLst/>
+            </a:prstGeom>
+            <a:solidFill>
+              <a:prstClr val="white"/>
+            </a:solidFill>
+            <a:ln w="1">
+              <a:solidFill>
+                <a:prstClr val="green"/>
+              </a:solidFill>
+            </a:ln>
+          </xdr:spPr>
+          <xdr:txBody>
+            <a:bodyPr vertOverflow="clip" horzOverflow="clip"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:r>
+                <a:rPr lang="en-SG" sz="1100"/>
+                <a:t>This chart isn't available in your version of Excel.
+Editing this shape or saving this workbook into a different file format will permanently break the chart.</a:t>
+              </a:r>
+            </a:p>
+          </xdr:txBody>
+        </xdr:sp>
+      </mc:Fallback>
+    </mc:AlternateContent>
     <xdr:clientData/>
   </xdr:twoCellAnchor>
 </xdr:wsDr>
@@ -2075,8 +4886,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:G3452"/>
   <sheetViews>
-    <sheetView topLeftCell="A731" workbookViewId="0">
-      <selection activeCell="O3446" sqref="O3446"/>
+    <sheetView topLeftCell="A3418" workbookViewId="0">
+      <selection activeCell="K3444" sqref="K3444"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -81495,8 +84306,8 @@
   <dimension ref="A1:G166"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A92" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
+      <pane ySplit="1" topLeftCell="A132" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="E166" sqref="E166"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -85337,7 +88148,7 @@
   <dimension ref="A1:I25"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="V15" sqref="V15"/>
+      <selection activeCell="W29" sqref="W29"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
